--- a/dataset/MCDATobinsQ.xlsx
+++ b/dataset/MCDATobinsQ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9652311303778187</v>
+        <v>0.9652315277070361</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9518428665725926</v>
+        <v>0.9518428520419558</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9419360323026135</v>
+        <v>0.9419365531698788</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9229423976960234</v>
+        <v>0.9229423736658992</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9123768137412535</v>
+        <v>0.9123767873978365</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9039996737144654</v>
+        <v>0.9039996468938784</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8976493423100446</v>
+        <v>0.8976493105621732</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8926038309109027</v>
+        <v>0.8926039212151936</v>
       </c>
       <c r="C9" t="n">
         <v>8</v>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8925220498562557</v>
+        <v>0.892522478566817</v>
       </c>
       <c r="C10" t="n">
         <v>9</v>
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8908963278348423</v>
+        <v>0.8908965677456701</v>
       </c>
       <c r="C11" t="n">
         <v>10</v>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8874608574004668</v>
+        <v>0.8874608213073381</v>
       </c>
       <c r="C12" t="n">
         <v>11</v>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8873971730834731</v>
+        <v>0.8873974062491671</v>
       </c>
       <c r="C13" t="n">
         <v>12</v>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8873563621723977</v>
+        <v>0.8873563259083136</v>
       </c>
       <c r="C14" t="n">
         <v>13</v>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8858739243245768</v>
+        <v>0.8858738904643608</v>
       </c>
       <c r="C15" t="n">
         <v>14</v>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8858115727531704</v>
+        <v>0.8858117842289871</v>
       </c>
       <c r="C16" t="n">
         <v>15</v>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8856645700343904</v>
+        <v>0.8856650021387006</v>
       </c>
       <c r="C17" t="n">
         <v>16</v>
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8833663178591784</v>
+        <v>0.8833662840372613</v>
       </c>
       <c r="C18" t="n">
         <v>17</v>
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.881965423163631</v>
+        <v>0.8819657885884585</v>
       </c>
       <c r="C19" t="n">
         <v>18</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8782162381650999</v>
+        <v>0.878216309973169</v>
       </c>
       <c r="C20" t="n">
         <v>19</v>
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8777341366637468</v>
+        <v>0.8777342106493105</v>
       </c>
       <c r="C21" t="n">
         <v>20</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8739592480914727</v>
+        <v>0.8739592065700902</v>
       </c>
       <c r="C22" t="n">
         <v>21</v>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8724185701687063</v>
+        <v>0.8724187470864276</v>
       </c>
       <c r="C23" t="n">
         <v>22</v>
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8689949445734684</v>
+        <v>0.8689949024698538</v>
       </c>
       <c r="C24" t="n">
         <v>23</v>
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8683171909670369</v>
+        <v>0.8683171476630873</v>
       </c>
       <c r="C25" t="n">
         <v>24</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8682620876570387</v>
+        <v>0.8682622775068407</v>
       </c>
       <c r="C26" t="n">
         <v>25</v>
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.8681218329607565</v>
+        <v>0.8681217922559187</v>
       </c>
       <c r="C27" t="n">
         <v>26</v>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.8629736535738807</v>
+        <v>0.8629737109829215</v>
       </c>
       <c r="C28" t="n">
         <v>27</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.8628978901552821</v>
+        <v>0.8628986907367847</v>
       </c>
       <c r="C29" t="n">
         <v>28</v>
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.8611453919918147</v>
+        <v>0.861145350484129</v>
       </c>
       <c r="C30" t="n">
         <v>29</v>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.8608440240486745</v>
+        <v>0.8608439810738503</v>
       </c>
       <c r="C31" t="n">
         <v>30</v>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.86075795935054</v>
+        <v>0.8607579155834372</v>
       </c>
       <c r="C32" t="n">
         <v>31</v>
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.8607569484725494</v>
+        <v>0.8607569047051801</v>
       </c>
       <c r="C33" t="n">
         <v>32</v>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.8603973940879719</v>
+        <v>0.8603973523443943</v>
       </c>
       <c r="C34" t="n">
         <v>33</v>
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.8603391965579749</v>
+        <v>0.8603393540852238</v>
       </c>
       <c r="C35" t="n">
         <v>34</v>
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.8599520872058096</v>
+        <v>0.8599520450334814</v>
       </c>
       <c r="C36" t="n">
         <v>35</v>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.8548462977909339</v>
+        <v>0.8548463455343275</v>
       </c>
       <c r="C37" t="n">
         <v>36</v>
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.8517895233642176</v>
+        <v>0.8517894771039584</v>
       </c>
       <c r="C38" t="n">
         <v>37</v>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.8502464796108388</v>
+        <v>0.850246525711659</v>
       </c>
       <c r="C39" t="n">
         <v>38</v>
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.8502215439078609</v>
+        <v>0.850221690411715</v>
       </c>
       <c r="C40" t="n">
         <v>39</v>
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.8491977055797371</v>
+        <v>0.8491976559182176</v>
       </c>
       <c r="C41" t="n">
         <v>40</v>
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.8491955734050511</v>
+        <v>0.849195523742954</v>
       </c>
       <c r="C42" t="n">
         <v>41</v>
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.8491474534868776</v>
+        <v>0.849147606312093</v>
       </c>
       <c r="C43" t="n">
         <v>42</v>
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.8468918831108569</v>
+        <v>0.8468918381804631</v>
       </c>
       <c r="C44" t="n">
         <v>43</v>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.8467792916397801</v>
+        <v>0.8467797066173696</v>
       </c>
       <c r="C45" t="n">
         <v>44</v>
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.8462719366340623</v>
+        <v>0.8462724100021642</v>
       </c>
       <c r="C46" t="n">
         <v>45</v>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.8461494916324975</v>
+        <v>0.8461501118688771</v>
       </c>
       <c r="C47" t="n">
         <v>46</v>
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.845870315248716</v>
+        <v>0.845870270030564</v>
       </c>
       <c r="C48" t="n">
         <v>47</v>
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.8458527318333195</v>
+        <v>0.8458533818703825</v>
       </c>
       <c r="C49" t="n">
         <v>48</v>
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.8444602356106867</v>
+        <v>0.8444601900201364</v>
       </c>
       <c r="C50" t="n">
         <v>49</v>
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.8434554096702603</v>
+        <v>0.8434558321458019</v>
       </c>
       <c r="C51" t="n">
         <v>50</v>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.8433168981741792</v>
+        <v>0.843316852437403</v>
       </c>
       <c r="C52" t="n">
         <v>51</v>
@@ -1120,7 +1120,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.8401183056822389</v>
+        <v>0.8401183438385894</v>
       </c>
       <c r="C53" t="n">
         <v>52</v>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.8368158879516185</v>
+        <v>0.8368161443624909</v>
       </c>
       <c r="C54" t="n">
         <v>53</v>
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.8365380681220105</v>
+        <v>0.83653801987104</v>
       </c>
       <c r="C55" t="n">
         <v>54</v>
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.8365360891574366</v>
+        <v>0.836536040905996</v>
       </c>
       <c r="C56" t="n">
         <v>55</v>
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.8365169797207367</v>
+        <v>0.8365170129233043</v>
       </c>
       <c r="C57" t="n">
         <v>56</v>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.8354170539721855</v>
+        <v>0.8354172861812218</v>
       </c>
       <c r="C58" t="n">
         <v>57</v>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.8340912451546976</v>
+        <v>0.834091196238867</v>
       </c>
       <c r="C59" t="n">
         <v>58</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.8333066522382635</v>
+        <v>0.833306598756234</v>
       </c>
       <c r="C60" t="n">
         <v>59</v>
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.833140638159058</v>
+        <v>0.8331405891971172</v>
       </c>
       <c r="C61" t="n">
         <v>60</v>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.8331401774518831</v>
+        <v>0.833140128489834</v>
       </c>
       <c r="C62" t="n">
         <v>61</v>
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.8324817620970723</v>
+        <v>0.8324817110290498</v>
       </c>
       <c r="C63" t="n">
         <v>62</v>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.8324425222780919</v>
+        <v>0.8324426396661896</v>
       </c>
       <c r="C64" t="n">
         <v>63</v>
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.8312785850440053</v>
+        <v>0.8312785293353034</v>
       </c>
       <c r="C65" t="n">
         <v>64</v>
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.8285636677101257</v>
+        <v>0.8285636118415056</v>
       </c>
       <c r="C66" t="n">
         <v>65</v>
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.8280025126242366</v>
+        <v>0.828002454563679</v>
       </c>
       <c r="C67" t="n">
         <v>66</v>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.8276233311403481</v>
+        <v>0.8276232744515243</v>
       </c>
       <c r="C68" t="n">
         <v>67</v>
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.824624831172672</v>
+        <v>0.8246248573212936</v>
       </c>
       <c r="C69" t="n">
         <v>68</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.8235520120213496</v>
+        <v>0.823551958003471</v>
       </c>
       <c r="C70" t="n">
         <v>69</v>
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.8228496228955421</v>
+        <v>0.8228495620574949</v>
       </c>
       <c r="C71" t="n">
         <v>70</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.8218170017669498</v>
+        <v>0.8218169441283657</v>
       </c>
       <c r="C72" t="n">
         <v>71</v>
@@ -1380,7 +1380,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.8217380824415403</v>
+        <v>0.8217383066940427</v>
       </c>
       <c r="C73" t="n">
         <v>72</v>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.8203735727841512</v>
+        <v>0.820373516373757</v>
       </c>
       <c r="C74" t="n">
         <v>73</v>
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.8187580817819937</v>
+        <v>0.8187580286318125</v>
       </c>
       <c r="C75" t="n">
         <v>74</v>
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.8187399297530839</v>
+        <v>0.8187399511546212</v>
       </c>
       <c r="C76" t="n">
         <v>75</v>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.8187225817232056</v>
+        <v>0.8187226785865936</v>
       </c>
       <c r="C77" t="n">
         <v>76</v>
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.8186974623277931</v>
+        <v>0.8186976600801718</v>
       </c>
       <c r="C78" t="n">
         <v>77</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.8186931510056502</v>
+        <v>0.8186933564624493</v>
       </c>
       <c r="C79" t="n">
         <v>78</v>
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.8185494366023394</v>
+        <v>0.8185493744835657</v>
       </c>
       <c r="C80" t="n">
         <v>79</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.8176760158795908</v>
+        <v>0.8176762183831241</v>
       </c>
       <c r="C81" t="n">
         <v>80</v>
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.8159415069175833</v>
+        <v>0.8159414541559539</v>
       </c>
       <c r="C82" t="n">
         <v>81</v>
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.8128938970291335</v>
+        <v>0.8128939870429196</v>
       </c>
       <c r="C83" t="n">
         <v>82</v>
@@ -1523,7 +1523,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.8096422863061079</v>
+        <v>0.8096423873135465</v>
       </c>
       <c r="C84" t="n">
         <v>83</v>
@@ -1536,7 +1536,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.8091854717830197</v>
+        <v>0.8091854113699957</v>
       </c>
       <c r="C85" t="n">
         <v>84</v>
@@ -1549,7 +1549,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.8089227199710594</v>
+        <v>0.8089226638419593</v>
       </c>
       <c r="C86" t="n">
         <v>85</v>
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.8089182582501875</v>
+        <v>0.8089182021200838</v>
       </c>
       <c r="C87" t="n">
         <v>86</v>
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.8089003344861277</v>
+        <v>0.808900350197021</v>
       </c>
       <c r="C88" t="n">
         <v>87</v>
@@ -1588,7 +1588,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.8079627100585569</v>
+        <v>0.8079629048150957</v>
       </c>
       <c r="C89" t="n">
         <v>88</v>
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.8062365227251759</v>
+        <v>0.8062366099152557</v>
       </c>
       <c r="C90" t="n">
         <v>89</v>
@@ -1614,7 +1614,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.805871763675396</v>
+        <v>0.805871700704438</v>
       </c>
       <c r="C91" t="n">
         <v>90</v>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.8055324084452594</v>
+        <v>0.8055323473707229</v>
       </c>
       <c r="C92" t="n">
         <v>91</v>
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.8044586110111196</v>
+        <v>0.8044588981362201</v>
       </c>
       <c r="C93" t="n">
         <v>92</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.804450017082194</v>
+        <v>0.8044506630937474</v>
       </c>
       <c r="C94" t="n">
         <v>93</v>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.8034325715465184</v>
+        <v>0.8034325117801548</v>
       </c>
       <c r="C95" t="n">
         <v>94</v>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.8029883579280344</v>
+        <v>0.8029882961270886</v>
       </c>
       <c r="C96" t="n">
         <v>95</v>
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.802947394577592</v>
+        <v>0.8029473349798071</v>
       </c>
       <c r="C97" t="n">
         <v>96</v>
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.8029323412803606</v>
+        <v>0.8029323540866609</v>
       </c>
       <c r="C98" t="n">
         <v>97</v>
@@ -1718,7 +1718,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.8027612044267606</v>
+        <v>0.8027611468327873</v>
       </c>
       <c r="C99" t="n">
         <v>98</v>
@@ -1731,7 +1731,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.8018913055429301</v>
+        <v>0.8018912478612009</v>
       </c>
       <c r="C100" t="n">
         <v>99</v>
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.8016965947491588</v>
+        <v>0.801697339610888</v>
       </c>
       <c r="C101" t="n">
         <v>100</v>
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.7986997687790987</v>
+        <v>0.7986997103956835</v>
       </c>
       <c r="C102" t="n">
         <v>101</v>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.7986976231364417</v>
+        <v>0.7986975647525602</v>
       </c>
       <c r="C103" t="n">
         <v>102</v>
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.7921946224083641</v>
+        <v>0.792195007164409</v>
       </c>
       <c r="C104" t="n">
         <v>103</v>
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.7911547051986921</v>
+        <v>0.7911547117682903</v>
       </c>
       <c r="C105" t="n">
         <v>104</v>
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.7900477082216428</v>
+        <v>0.7900476471414344</v>
       </c>
       <c r="C106" t="n">
         <v>105</v>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.7896085983869433</v>
+        <v>0.7896085346008834</v>
       </c>
       <c r="C107" t="n">
         <v>106</v>
@@ -1835,7 +1835,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.7890467342288029</v>
+        <v>0.7890470273159705</v>
       </c>
       <c r="C108" t="n">
         <v>107</v>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.7890041312439298</v>
+        <v>0.7890040627834072</v>
       </c>
       <c r="C109" t="n">
         <v>108</v>
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.7890031992378483</v>
+        <v>0.7890031307771039</v>
       </c>
       <c r="C110" t="n">
         <v>109</v>
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.7890025035031354</v>
+        <v>0.7890024350422257</v>
       </c>
       <c r="C111" t="n">
         <v>110</v>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.7889459526045554</v>
+        <v>0.7889461204973436</v>
       </c>
       <c r="C112" t="n">
         <v>111</v>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.7889205291362196</v>
+        <v>0.7889204629942201</v>
       </c>
       <c r="C113" t="n">
         <v>112</v>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.7889138974263388</v>
+        <v>0.7889138312828098</v>
       </c>
       <c r="C114" t="n">
         <v>113</v>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.7886602229701558</v>
+        <v>0.7886601564108714</v>
       </c>
       <c r="C115" t="n">
         <v>114</v>
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.7886427866446423</v>
+        <v>0.7886428630195025</v>
       </c>
       <c r="C116" t="n">
         <v>115</v>
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.7884834652734856</v>
+        <v>0.7884834014244968</v>
       </c>
       <c r="C117" t="n">
         <v>116</v>
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.7859831277987673</v>
+        <v>0.7859830534918939</v>
       </c>
       <c r="C118" t="n">
         <v>117</v>
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.7851945467558602</v>
+        <v>0.7851946112921298</v>
       </c>
       <c r="C119" t="n">
         <v>118</v>
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.7839747707599329</v>
+        <v>0.7839747084037375</v>
       </c>
       <c r="C120" t="n">
         <v>119</v>
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.7824999036344716</v>
+        <v>0.7824998284798214</v>
       </c>
       <c r="C121" t="n">
         <v>120</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.7823008192367186</v>
+        <v>0.7823007564164701</v>
       </c>
       <c r="C122" t="n">
         <v>121</v>
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.7806441107954413</v>
+        <v>0.7806440333290365</v>
       </c>
       <c r="C123" t="n">
         <v>122</v>
@@ -2043,7 +2043,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.7805843432037342</v>
+        <v>0.7805845130192288</v>
       </c>
       <c r="C124" t="n">
         <v>123</v>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.7803366678044699</v>
+        <v>0.7803365928640262</v>
       </c>
       <c r="C125" t="n">
         <v>124</v>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.7772881098508642</v>
+        <v>0.7772884954322382</v>
       </c>
       <c r="C126" t="n">
         <v>125</v>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.7764400467319219</v>
+        <v>0.7764399765380576</v>
       </c>
       <c r="C127" t="n">
         <v>126</v>
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.7755976392130024</v>
+        <v>0.7755975669535817</v>
       </c>
       <c r="C128" t="n">
         <v>127</v>
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.7725957719618995</v>
+        <v>0.7725959068700183</v>
       </c>
       <c r="C129" t="n">
         <v>128</v>
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.7722580453096402</v>
+        <v>0.7722581045304479</v>
       </c>
       <c r="C130" t="n">
         <v>129</v>
@@ -2134,7 +2134,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.7721615230101224</v>
+        <v>0.7721614492304192</v>
       </c>
       <c r="C131" t="n">
         <v>130</v>
@@ -2147,7 +2147,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.7721103927278777</v>
+        <v>0.7721105372941264</v>
       </c>
       <c r="C132" t="n">
         <v>131</v>
@@ -2160,7 +2160,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.7720837310592723</v>
+        <v>0.7720839779038495</v>
       </c>
       <c r="C133" t="n">
         <v>132</v>
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.7715893541195509</v>
+        <v>0.7715894982544487</v>
       </c>
       <c r="C134" t="n">
         <v>133</v>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.7713805561647228</v>
+        <v>0.7713804876499175</v>
       </c>
       <c r="C135" t="n">
         <v>134</v>
@@ -2199,7 +2199,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.7713313405645555</v>
+        <v>0.7713314734439335</v>
       </c>
       <c r="C136" t="n">
         <v>135</v>
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.7713312831158903</v>
+        <v>0.7713314159951914</v>
       </c>
       <c r="C137" t="n">
         <v>136</v>
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.7712982134978579</v>
+        <v>0.7712981450504047</v>
       </c>
       <c r="C138" t="n">
         <v>137</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.7712974521669256</v>
+        <v>0.771297383719312</v>
       </c>
       <c r="C139" t="n">
         <v>138</v>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.7700461303812928</v>
+        <v>0.7700461920328444</v>
       </c>
       <c r="C140" t="n">
         <v>139</v>
@@ -2264,7 +2264,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.769457901905639</v>
+        <v>0.7694578358994809</v>
       </c>
       <c r="C141" t="n">
         <v>140</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.7691335832816132</v>
+        <v>0.7691335170419323</v>
       </c>
       <c r="C142" t="n">
         <v>141</v>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.7671880381574353</v>
+        <v>0.7671882870864813</v>
       </c>
       <c r="C143" t="n">
         <v>142</v>
@@ -2303,7 +2303,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.7666338322107721</v>
+        <v>0.7666339783996476</v>
       </c>
       <c r="C144" t="n">
         <v>143</v>
@@ -2316,7 +2316,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.7637302905081548</v>
+        <v>0.7637302094617436</v>
       </c>
       <c r="C145" t="n">
         <v>144</v>
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.7632206636855698</v>
+        <v>0.7632207226796456</v>
       </c>
       <c r="C146" t="n">
         <v>145</v>
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.7624328158403582</v>
+        <v>0.7624328086827604</v>
       </c>
       <c r="C147" t="n">
         <v>146</v>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.7623172330498328</v>
+        <v>0.762317350523018</v>
       </c>
       <c r="C148" t="n">
         <v>147</v>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.762169466022957</v>
+        <v>0.7621693976059982</v>
       </c>
       <c r="C149" t="n">
         <v>148</v>
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.7621685342925065</v>
+        <v>0.7621684658753631</v>
       </c>
       <c r="C150" t="n">
         <v>149</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.7620365337231275</v>
+        <v>0.7620365263880434</v>
       </c>
       <c r="C151" t="n">
         <v>150</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.7611582990409074</v>
+        <v>0.7611583501309604</v>
       </c>
       <c r="C152" t="n">
         <v>151</v>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.7610028212915371</v>
+        <v>0.761002752747079</v>
       </c>
       <c r="C153" t="n">
         <v>152</v>
@@ -2433,7 +2433,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.7570684482432233</v>
+        <v>0.7570684391740897</v>
       </c>
       <c r="C154" t="n">
         <v>153</v>
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.7561481744293317</v>
+        <v>0.756148098747576</v>
       </c>
       <c r="C155" t="n">
         <v>154</v>
@@ -2459,7 +2459,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.7561190477620163</v>
+        <v>0.7561190949648632</v>
       </c>
       <c r="C156" t="n">
         <v>155</v>
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.7558306047652216</v>
+        <v>0.7558309062954526</v>
       </c>
       <c r="C157" t="n">
         <v>156</v>
@@ -2485,7 +2485,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.7548693571675007</v>
+        <v>0.7548692873243777</v>
       </c>
       <c r="C158" t="n">
         <v>157</v>
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.7548544040627578</v>
+        <v>0.7548543945130833</v>
       </c>
       <c r="C159" t="n">
         <v>158</v>
@@ -2511,7 +2511,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.754841241788941</v>
+        <v>0.7548411547464188</v>
       </c>
       <c r="C160" t="n">
         <v>159</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.7547274253336799</v>
+        <v>0.7547273526218922</v>
       </c>
       <c r="C161" t="n">
         <v>160</v>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.7546808065430963</v>
+        <v>0.7546809200570024</v>
       </c>
       <c r="C162" t="n">
         <v>161</v>
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.7544818839164875</v>
+        <v>0.7544818079862692</v>
       </c>
       <c r="C163" t="n">
         <v>162</v>
@@ -2563,7 +2563,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.7543627664491896</v>
+        <v>0.754363196131288</v>
       </c>
       <c r="C164" t="n">
         <v>163</v>
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.7542815317404237</v>
+        <v>0.7542815758179902</v>
       </c>
       <c r="C165" t="n">
         <v>164</v>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.7531029729586752</v>
+        <v>0.7531030160921739</v>
       </c>
       <c r="C166" t="n">
         <v>165</v>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.7526027300598154</v>
+        <v>0.7526026474527645</v>
       </c>
       <c r="C167" t="n">
         <v>166</v>
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.7526017783063002</v>
+        <v>0.752601695699035</v>
       </c>
       <c r="C168" t="n">
         <v>167</v>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.7522742846287889</v>
+        <v>0.7522744010152436</v>
       </c>
       <c r="C169" t="n">
         <v>168</v>
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.7511025252773476</v>
+        <v>0.7511024512401788</v>
       </c>
       <c r="C170" t="n">
         <v>169</v>
@@ -2654,7 +2654,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.7509150818641673</v>
+        <v>0.7509150017664787</v>
       </c>
       <c r="C171" t="n">
         <v>170</v>
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.750689964607808</v>
+        <v>0.7506898814061426</v>
       </c>
       <c r="C172" t="n">
         <v>171</v>
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.7506899354117335</v>
+        <v>0.7506898522100615</v>
       </c>
       <c r="C173" t="n">
         <v>172</v>
@@ -2693,7 +2693,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.750689929002157</v>
+        <v>0.7506898458004836</v>
       </c>
       <c r="C174" t="n">
         <v>173</v>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.750689802184534</v>
+        <v>0.7506897189828321</v>
       </c>
       <c r="C175" t="n">
         <v>174</v>
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.7505566511867857</v>
+        <v>0.750556639470065</v>
       </c>
       <c r="C176" t="n">
         <v>175</v>
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.7504265731157911</v>
+        <v>0.750426502479886</v>
       </c>
       <c r="C177" t="n">
         <v>176</v>
@@ -2745,7 +2745,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.7490385970988593</v>
+        <v>0.7490385107289457</v>
       </c>
       <c r="C178" t="n">
         <v>177</v>
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.7490210774614739</v>
+        <v>0.7490210631994915</v>
       </c>
       <c r="C179" t="n">
         <v>178</v>
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.7489872966969274</v>
+        <v>0.7489874219749483</v>
       </c>
       <c r="C180" t="n">
         <v>179</v>
@@ -2784,7 +2784,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.7483094309004866</v>
+        <v>0.7483093590199388</v>
       </c>
       <c r="C181" t="n">
         <v>180</v>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.7479569650477995</v>
+        <v>0.7479569528706178</v>
       </c>
       <c r="C182" t="n">
         <v>181</v>
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.7479337061508505</v>
+        <v>0.7479336246618896</v>
       </c>
       <c r="C183" t="n">
         <v>182</v>
@@ -2823,7 +2823,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.7479290388672042</v>
+        <v>0.7479291413111475</v>
       </c>
       <c r="C184" t="n">
         <v>183</v>
@@ -2836,7 +2836,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.7479033996803643</v>
+        <v>0.7479034431633286</v>
       </c>
       <c r="C185" t="n">
         <v>184</v>
@@ -2849,7 +2849,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.7478622074334937</v>
+        <v>0.7478625851413107</v>
       </c>
       <c r="C186" t="n">
         <v>185</v>
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.7473849233143166</v>
+        <v>0.7473849699140174</v>
       </c>
       <c r="C187" t="n">
         <v>186</v>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.7467617857350549</v>
+        <v>0.7467619087654852</v>
       </c>
       <c r="C188" t="n">
         <v>187</v>
@@ -2888,7 +2888,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.7466804006504224</v>
+        <v>0.7466309329694122</v>
       </c>
       <c r="C189" t="n">
         <v>188</v>
@@ -2901,7 +2901,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.7407583570055856</v>
+        <v>0.7407584568872669</v>
       </c>
       <c r="C190" t="n">
         <v>189</v>
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.7406362547955124</v>
+        <v>0.7406361814992425</v>
       </c>
       <c r="C191" t="n">
         <v>190</v>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.7406360471092635</v>
+        <v>0.7406359738129553</v>
       </c>
       <c r="C192" t="n">
         <v>191</v>
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.7399537097797253</v>
+        <v>0.7399538132143257</v>
       </c>
       <c r="C193" t="n">
         <v>192</v>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.7393461854873226</v>
+        <v>0.7393461118149729</v>
       </c>
       <c r="C194" t="n">
         <v>193</v>
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.738913068688535</v>
+        <v>0.7389131619866627</v>
       </c>
       <c r="C195" t="n">
         <v>194</v>
@@ -2979,7 +2979,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.7387564074488365</v>
+        <v>0.7387563269791441</v>
       </c>
       <c r="C196" t="n">
         <v>195</v>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.7387332279270121</v>
+        <v>0.7387333253198405</v>
       </c>
       <c r="C197" t="n">
         <v>196</v>
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.7382359875790199</v>
+        <v>0.7382360230180911</v>
       </c>
       <c r="C198" t="n">
         <v>197</v>
@@ -3018,7 +3018,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.7381404390128453</v>
+        <v>0.7381403621710706</v>
       </c>
       <c r="C199" t="n">
         <v>198</v>
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.7380537292955877</v>
+        <v>0.7380536453164188</v>
       </c>
       <c r="C200" t="n">
         <v>199</v>
@@ -3044,7 +3044,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.7374032107116846</v>
+        <v>0.7374032441326276</v>
       </c>
       <c r="C201" t="n">
         <v>200</v>
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.7373872671625141</v>
+        <v>0.7373873638366271</v>
       </c>
       <c r="C202" t="n">
         <v>201</v>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.7372970751870782</v>
+        <v>0.737296990876163</v>
       </c>
       <c r="C203" t="n">
         <v>202</v>
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.7372950649736532</v>
+        <v>0.7372949724089561</v>
       </c>
       <c r="C204" t="n">
         <v>203</v>
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.7370254526148486</v>
+        <v>0.7370253656568232</v>
       </c>
       <c r="C205" t="n">
         <v>204</v>
@@ -3109,7 +3109,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.7356103717562648</v>
+        <v>0.7356103521053021</v>
       </c>
       <c r="C206" t="n">
         <v>205</v>
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.7355399670906279</v>
+        <v>0.7355400783708169</v>
       </c>
       <c r="C207" t="n">
         <v>206</v>
@@ -3135,7 +3135,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.7350579922858954</v>
+        <v>0.7350579754099495</v>
       </c>
       <c r="C208" t="n">
         <v>207</v>
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.7345644375300787</v>
+        <v>0.7345643623039825</v>
       </c>
       <c r="C209" t="n">
         <v>208</v>
@@ -3161,7 +3161,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.7332807925498364</v>
+        <v>0.7332807175276173</v>
       </c>
       <c r="C210" t="n">
         <v>209</v>
@@ -3174,7 +3174,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.7332630342861861</v>
+        <v>0.7332630136951264</v>
       </c>
       <c r="C211" t="n">
         <v>210</v>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.7327292330503887</v>
+        <v>0.7327291391002714</v>
       </c>
       <c r="C212" t="n">
         <v>211</v>
@@ -3200,7 +3200,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.732436614546026</v>
+        <v>0.7324369097928575</v>
       </c>
       <c r="C213" t="n">
         <v>212</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.7317830850732039</v>
+        <v>0.7317831855009362</v>
       </c>
       <c r="C214" t="n">
         <v>213</v>
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.7316817072413337</v>
+        <v>0.7316816177340334</v>
       </c>
       <c r="C215" t="n">
         <v>214</v>
@@ -3239,7 +3239,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.7313668966663621</v>
+        <v>0.7313668043413168</v>
       </c>
       <c r="C216" t="n">
         <v>215</v>
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.7291845697973588</v>
+        <v>0.7291846556071673</v>
       </c>
       <c r="C217" t="n">
         <v>216</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.7287816392153422</v>
+        <v>0.728781617511686</v>
       </c>
       <c r="C218" t="n">
         <v>217</v>
@@ -3278,7 +3278,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.7267853251355157</v>
+        <v>0.7267852486330519</v>
       </c>
       <c r="C219" t="n">
         <v>218</v>
@@ -3291,7 +3291,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.7267852417721693</v>
+        <v>0.7267851652696909</v>
       </c>
       <c r="C220" t="n">
         <v>219</v>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.7267852284697884</v>
+        <v>0.7267851519673076</v>
       </c>
       <c r="C221" t="n">
         <v>220</v>
@@ -3317,7 +3317,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.726760343828147</v>
+        <v>0.7267603699663417</v>
       </c>
       <c r="C222" t="n">
         <v>221</v>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.725611052524861</v>
+        <v>0.7256109687459423</v>
       </c>
       <c r="C223" t="n">
         <v>222</v>
@@ -3343,7 +3343,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.7255503606087549</v>
+        <v>0.7255505248266275</v>
       </c>
       <c r="C224" t="n">
         <v>223</v>
@@ -3356,7 +3356,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.7243749772348178</v>
+        <v>0.7243750046167172</v>
       </c>
       <c r="C225" t="n">
         <v>224</v>
@@ -3369,7 +3369,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.7242473724421734</v>
+        <v>0.7242472882003407</v>
       </c>
       <c r="C226" t="n">
         <v>225</v>
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.7239171457167255</v>
+        <v>0.7239170651462279</v>
       </c>
       <c r="C227" t="n">
         <v>226</v>
@@ -3395,7 +3395,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.7234558994392418</v>
+        <v>0.7234558186992063</v>
       </c>
       <c r="C228" t="n">
         <v>227</v>
@@ -3408,7 +3408,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.7234555214228793</v>
+        <v>0.7234554406827755</v>
       </c>
       <c r="C229" t="n">
         <v>228</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.7234481528547675</v>
+        <v>0.723448072645768</v>
       </c>
       <c r="C230" t="n">
         <v>229</v>
@@ -3434,7 +3434,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.7233911982527124</v>
+        <v>0.7233913517663948</v>
       </c>
       <c r="C231" t="n">
         <v>230</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.7224743282419439</v>
+        <v>0.7224743034218681</v>
       </c>
       <c r="C232" t="n">
         <v>231</v>
@@ -3460,7 +3460,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.7218756489948973</v>
+        <v>0.721875672737877</v>
       </c>
       <c r="C233" t="n">
         <v>232</v>
@@ -3473,7 +3473,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.721194809818378</v>
+        <v>0.7211949674545615</v>
       </c>
       <c r="C234" t="n">
         <v>233</v>
@@ -3486,7 +3486,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.7208686442309302</v>
+        <v>0.7208686187603516</v>
       </c>
       <c r="C235" t="n">
         <v>234</v>
@@ -3499,7 +3499,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.7205443629013368</v>
+        <v>0.7205442617599966</v>
       </c>
       <c r="C236" t="n">
         <v>235</v>
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.7205439576666738</v>
+        <v>0.7205438565252437</v>
       </c>
       <c r="C237" t="n">
         <v>236</v>
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.7204947956110206</v>
+        <v>0.720494897176105</v>
       </c>
       <c r="C238" t="n">
         <v>237</v>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.7204057443285037</v>
+        <v>0.7204056665630969</v>
       </c>
       <c r="C239" t="n">
         <v>238</v>
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.72040547402733</v>
+        <v>0.7204053962618771</v>
       </c>
       <c r="C240" t="n">
         <v>239</v>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.72039300852296</v>
+        <v>0.7203929869695186</v>
       </c>
       <c r="C241" t="n">
         <v>240</v>
@@ -3577,7 +3577,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.7202286714798273</v>
+        <v>0.7202285723428686</v>
       </c>
       <c r="C242" t="n">
         <v>241</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.7181516589447265</v>
+        <v>0.7181515657955361</v>
       </c>
       <c r="C243" t="n">
         <v>242</v>
@@ -3603,7 +3603,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.7178575377726688</v>
+        <v>0.7178574488156592</v>
       </c>
       <c r="C244" t="n">
         <v>243</v>
@@ -3616,7 +3616,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.7178290183457995</v>
+        <v>0.7178290427806</v>
       </c>
       <c r="C245" t="n">
         <v>244</v>
@@ -3629,7 +3629,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.7152925719088629</v>
+        <v>0.7152924704259436</v>
       </c>
       <c r="C246" t="n">
         <v>245</v>
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.7152294579459585</v>
+        <v>0.7152293568892548</v>
       </c>
       <c r="C247" t="n">
         <v>246</v>
@@ -3655,7 +3655,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.7150995689575221</v>
+        <v>0.7150994892343232</v>
       </c>
       <c r="C248" t="n">
         <v>247</v>
@@ -3668,7 +3668,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.7128097101114715</v>
+        <v>0.7128096224674356</v>
       </c>
       <c r="C249" t="n">
         <v>248</v>
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.7121569414418565</v>
+        <v>0.7121569612253279</v>
       </c>
       <c r="C250" t="n">
         <v>249</v>
@@ -3694,7 +3694,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.711253624230768</v>
+        <v>0.7112535405212418</v>
       </c>
       <c r="C251" t="n">
         <v>250</v>
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.7111783987924948</v>
+        <v>0.7111783153867451</v>
       </c>
       <c r="C252" t="n">
         <v>251</v>
@@ -3720,7 +3720,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.7111782177730669</v>
+        <v>0.7111781343672863</v>
       </c>
       <c r="C253" t="n">
         <v>252</v>
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.7111651345081427</v>
+        <v>0.711165109019794</v>
       </c>
       <c r="C254" t="n">
         <v>253</v>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.7110862980905721</v>
+        <v>0.711086599729315</v>
       </c>
       <c r="C255" t="n">
         <v>254</v>
@@ -3759,7 +3759,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.7110026293723548</v>
+        <v>0.7110025501536822</v>
       </c>
       <c r="C256" t="n">
         <v>255</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.7110026230316875</v>
+        <v>0.7110025438130138</v>
       </c>
       <c r="C257" t="n">
         <v>256</v>
@@ -3785,7 +3785,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.7107304651916916</v>
+        <v>0.7107304395474475</v>
       </c>
       <c r="C258" t="n">
         <v>257</v>
@@ -3798,7 +3798,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.7105392021702026</v>
+        <v>0.7105391763769456</v>
       </c>
       <c r="C259" t="n">
         <v>258</v>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.7093962927283713</v>
+        <v>0.7093962119470328</v>
       </c>
       <c r="C260" t="n">
         <v>259</v>
@@ -3824,7 +3824,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.709393678883106</v>
+        <v>0.7093935981013335</v>
       </c>
       <c r="C261" t="n">
         <v>260</v>
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.7093800843362569</v>
+        <v>0.7093800592338532</v>
       </c>
       <c r="C262" t="n">
         <v>261</v>
@@ -3850,7 +3850,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.7093107698844731</v>
+        <v>0.7093107400012167</v>
       </c>
       <c r="C263" t="n">
         <v>262</v>
@@ -3863,7 +3863,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.7087432195902424</v>
+        <v>0.7087431361567766</v>
       </c>
       <c r="C264" t="n">
         <v>263</v>
@@ -3876,7 +3876,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.7082820356570987</v>
+        <v>0.7082821238404399</v>
       </c>
       <c r="C265" t="n">
         <v>264</v>
@@ -3889,7 +3889,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.7081493078262477</v>
+        <v>0.7081492016036512</v>
       </c>
       <c r="C266" t="n">
         <v>265</v>
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.7074808221852256</v>
+        <v>0.707480893172125</v>
       </c>
       <c r="C267" t="n">
         <v>266</v>
@@ -3915,7 +3915,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.707178674443938</v>
+        <v>0.7071788741430948</v>
       </c>
       <c r="C268" t="n">
         <v>267</v>
@@ -3928,7 +3928,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.70623578664497</v>
+        <v>0.7062357608318282</v>
       </c>
       <c r="C269" t="n">
         <v>268</v>
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.7054787000676002</v>
+        <v>0.7054786717525398</v>
       </c>
       <c r="C270" t="n">
         <v>269</v>
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.7048256677718902</v>
+        <v>0.7048258056817612</v>
       </c>
       <c r="C271" t="n">
         <v>270</v>
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.7044636224805482</v>
+        <v>0.7044635245296128</v>
       </c>
       <c r="C272" t="n">
         <v>271</v>
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.7034053402911641</v>
+        <v>0.7034052323373999</v>
       </c>
       <c r="C273" t="n">
         <v>272</v>
@@ -3993,7 +3993,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.70162477916758</v>
+        <v>0.7016247492115636</v>
       </c>
       <c r="C274" t="n">
         <v>273</v>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.7012679785431686</v>
+        <v>0.7012678806393322</v>
       </c>
       <c r="C275" t="n">
         <v>274</v>
@@ -4019,7 +4019,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.700872225445108</v>
+        <v>0.7008721955446867</v>
       </c>
       <c r="C276" t="n">
         <v>275</v>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0.700617826148905</v>
+        <v>0.700617744075903</v>
       </c>
       <c r="C277" t="n">
         <v>276</v>
@@ -4045,7 +4045,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0.7001743709707927</v>
+        <v>0.7001745712466692</v>
       </c>
       <c r="C278" t="n">
         <v>277</v>
@@ -4058,7 +4058,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.6994469524732232</v>
+        <v>0.6994468435668326</v>
       </c>
       <c r="C279" t="n">
         <v>278</v>
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.6993665996348161</v>
+        <v>0.6993665665201289</v>
       </c>
       <c r="C280" t="n">
         <v>279</v>
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.6993018118962827</v>
+        <v>0.699302018444684</v>
       </c>
       <c r="C281" t="n">
         <v>280</v>
@@ -4097,7 +4097,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0.6992979183115848</v>
+        <v>0.6992978314094777</v>
       </c>
       <c r="C282" t="n">
         <v>281</v>
@@ -4110,7 +4110,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0.6992608081022053</v>
+        <v>0.6992608740977092</v>
       </c>
       <c r="C283" t="n">
         <v>282</v>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0.6979057237468705</v>
+        <v>0.6979060877246934</v>
       </c>
       <c r="C284" t="n">
         <v>283</v>
@@ -4136,7 +4136,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0.6976507875351438</v>
+        <v>0.697650972040611</v>
       </c>
       <c r="C285" t="n">
         <v>284</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0.6968480441511228</v>
+        <v>0.6968479572519757</v>
       </c>
       <c r="C286" t="n">
         <v>285</v>
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.6959838921442626</v>
+        <v>0.6959839672411424</v>
       </c>
       <c r="C287" t="n">
         <v>286</v>
@@ -4175,7 +4175,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0.6948720554873549</v>
+        <v>0.6948719726540999</v>
       </c>
       <c r="C288" t="n">
         <v>287</v>
@@ -4188,7 +4188,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.6948720126096857</v>
+        <v>0.6948719297764242</v>
       </c>
       <c r="C289" t="n">
         <v>288</v>
@@ -4201,7 +4201,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.6948716632715408</v>
+        <v>0.6948715804382261</v>
       </c>
       <c r="C290" t="n">
         <v>289</v>
@@ -4214,7 +4214,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.6948233741667557</v>
+        <v>0.6948234903602493</v>
       </c>
       <c r="C291" t="n">
         <v>290</v>
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0.6946578329518931</v>
+        <v>0.694657746644526</v>
       </c>
       <c r="C292" t="n">
         <v>291</v>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0.6946576833312115</v>
+        <v>0.6946575970238208</v>
       </c>
       <c r="C293" t="n">
         <v>292</v>
@@ -4253,7 +4253,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.6946441310812191</v>
+        <v>0.6946441009238993</v>
       </c>
       <c r="C294" t="n">
         <v>293</v>
@@ -4266,7 +4266,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.6946223401199283</v>
+        <v>0.6946224017018399</v>
       </c>
       <c r="C295" t="n">
         <v>294</v>
@@ -4279,7 +4279,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0.6945093421908932</v>
+        <v>0.6945092380557745</v>
       </c>
       <c r="C296" t="n">
         <v>295</v>
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0.6936392948308727</v>
+        <v>0.693639449637022</v>
       </c>
       <c r="C297" t="n">
         <v>296</v>
@@ -4305,7 +4305,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0.6934841690199373</v>
+        <v>0.6934843134813141</v>
       </c>
       <c r="C298" t="n">
         <v>297</v>
@@ -4318,7 +4318,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0.6910336517741089</v>
+        <v>0.6910337172215221</v>
       </c>
       <c r="C299" t="n">
         <v>298</v>
@@ -4331,7 +4331,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0.6906836318198875</v>
+        <v>0.6906835990943716</v>
       </c>
       <c r="C300" t="n">
         <v>299</v>
@@ -4344,7 +4344,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0.6906836236611229</v>
+        <v>0.6906835909356048</v>
       </c>
       <c r="C301" t="n">
         <v>300</v>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0.6906732882133714</v>
+        <v>0.6906732982037358</v>
       </c>
       <c r="C302" t="n">
         <v>301</v>
@@ -4370,7 +4370,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0.6906289837178679</v>
+        <v>0.6906291756812785</v>
       </c>
       <c r="C303" t="n">
         <v>302</v>
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0.6902985418102059</v>
+        <v>0.6902984376173393</v>
       </c>
       <c r="C304" t="n">
         <v>303</v>
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0.6900796483271038</v>
+        <v>0.6900795554521872</v>
       </c>
       <c r="C305" t="n">
         <v>304</v>
@@ -4409,7 +4409,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0.6897992821670139</v>
+        <v>0.6897992471051132</v>
       </c>
       <c r="C306" t="n">
         <v>305</v>
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0.6897888492370725</v>
+        <v>0.6897888594369136</v>
       </c>
       <c r="C307" t="n">
         <v>306</v>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0.6897329948075649</v>
+        <v>0.6897329050653654</v>
       </c>
       <c r="C308" t="n">
         <v>307</v>
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0.6895366210118498</v>
+        <v>0.6895365055570305</v>
       </c>
       <c r="C309" t="n">
         <v>308</v>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.6892723604383033</v>
+        <v>0.6892723724241964</v>
       </c>
       <c r="C310" t="n">
         <v>309</v>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0.6890179247408802</v>
+        <v>0.6890178326499783</v>
       </c>
       <c r="C311" t="n">
         <v>310</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.6890178026595246</v>
+        <v>0.6890177105686026</v>
       </c>
       <c r="C312" t="n">
         <v>311</v>
@@ -4500,7 +4500,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0.6886250228238058</v>
+        <v>0.6886249305643249</v>
       </c>
       <c r="C313" t="n">
         <v>312</v>
@@ -4513,7 +4513,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.6885877450797493</v>
+        <v>0.6885878057205118</v>
       </c>
       <c r="C314" t="n">
         <v>313</v>
@@ -4526,7 +4526,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.6885520119113403</v>
+        <v>0.68855202268529</v>
       </c>
       <c r="C315" t="n">
         <v>314</v>
@@ -4539,7 +4539,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0.6880648296429219</v>
+        <v>0.6880647451612671</v>
       </c>
       <c r="C316" t="n">
         <v>315</v>
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0.6877776395099543</v>
+        <v>0.6877777160712703</v>
       </c>
       <c r="C317" t="n">
         <v>316</v>
@@ -4565,7 +4565,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.687464320478179</v>
+        <v>0.6874642308002278</v>
       </c>
       <c r="C318" t="n">
         <v>317</v>
@@ -4578,7 +4578,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0.6868074372042829</v>
+        <v>0.6868073488614831</v>
       </c>
       <c r="C319" t="n">
         <v>318</v>
@@ -4591,7 +4591,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0.6868069687068313</v>
+        <v>0.6868068803639593</v>
       </c>
       <c r="C320" t="n">
         <v>319</v>
@@ -4604,7 +4604,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0.6867835943256668</v>
+        <v>0.6867836022566123</v>
       </c>
       <c r="C321" t="n">
         <v>320</v>
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0.686772282545437</v>
+        <v>0.6867723391806198</v>
       </c>
       <c r="C322" t="n">
         <v>321</v>
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0.6867716760377658</v>
+        <v>0.6867717326725354</v>
       </c>
       <c r="C323" t="n">
         <v>322</v>
@@ -4643,7 +4643,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.6867579204684464</v>
+        <v>0.6867580341069491</v>
       </c>
       <c r="C324" t="n">
         <v>323</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.6866328680249074</v>
+        <v>0.6866327631757908</v>
       </c>
       <c r="C325" t="n">
         <v>324</v>
@@ -4669,7 +4669,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0.6861498085427168</v>
+        <v>0.6861498878774883</v>
       </c>
       <c r="C326" t="n">
         <v>325</v>
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0.6855019320935345</v>
+        <v>0.6855018354816056</v>
       </c>
       <c r="C327" t="n">
         <v>326</v>
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0.6854313593605352</v>
+        <v>0.6854315525530307</v>
       </c>
       <c r="C328" t="n">
         <v>327</v>
@@ -4708,7 +4708,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.6853132084845037</v>
+        <v>0.6853131229576171</v>
       </c>
       <c r="C329" t="n">
         <v>328</v>
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0.6852901731860347</v>
+        <v>0.6852901802348452</v>
       </c>
       <c r="C330" t="n">
         <v>329</v>
@@ -4734,7 +4734,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.6852191815771368</v>
+        <v>0.6852191884723066</v>
       </c>
       <c r="C331" t="n">
         <v>330</v>
@@ -4747,7 +4747,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.6850477402526649</v>
+        <v>0.6850476291411528</v>
       </c>
       <c r="C332" t="n">
         <v>331</v>
@@ -4760,7 +4760,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.6848884531780244</v>
+        <v>0.6848883509771362</v>
       </c>
       <c r="C333" t="n">
         <v>332</v>
@@ -4773,7 +4773,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.6846564280724895</v>
+        <v>0.6846566051417918</v>
       </c>
       <c r="C334" t="n">
         <v>333</v>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0.6834025190822299</v>
+        <v>0.6834024117201377</v>
       </c>
       <c r="C335" t="n">
         <v>334</v>
@@ -4799,7 +4799,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0.6827123045950334</v>
+        <v>0.6827122726128447</v>
       </c>
       <c r="C336" t="n">
         <v>335</v>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0.6821165653209207</v>
+        <v>0.6821164502766587</v>
       </c>
       <c r="C337" t="n">
         <v>336</v>
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0.6805181617186906</v>
+        <v>0.6805180673490985</v>
       </c>
       <c r="C338" t="n">
         <v>337</v>
@@ -4838,7 +4838,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0.6796930382624908</v>
+        <v>0.6796930014518887</v>
       </c>
       <c r="C339" t="n">
         <v>338</v>
@@ -4851,7 +4851,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0.6796014899952381</v>
+        <v>0.6796013876171103</v>
       </c>
       <c r="C340" t="n">
         <v>339</v>
@@ -4864,7 +4864,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0.6788712813054848</v>
+        <v>0.6788711860494708</v>
       </c>
       <c r="C341" t="n">
         <v>340</v>
@@ -4877,7 +4877,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0.6788712764815404</v>
+        <v>0.6788711812255257</v>
       </c>
       <c r="C342" t="n">
         <v>341</v>
@@ -4890,7 +4890,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0.6788046415269008</v>
+        <v>0.6788048200828605</v>
       </c>
       <c r="C343" t="n">
         <v>342</v>
@@ -4903,7 +4903,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0.6781437835193803</v>
+        <v>0.6781436847152251</v>
       </c>
       <c r="C344" t="n">
         <v>343</v>
@@ -4916,7 +4916,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0.6778484159842855</v>
+        <v>0.6778483216738536</v>
       </c>
       <c r="C345" t="n">
         <v>344</v>
@@ -4929,7 +4929,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0.6778483715154788</v>
+        <v>0.67784827720504</v>
       </c>
       <c r="C346" t="n">
         <v>345</v>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0.6778356007951414</v>
+        <v>0.6778355643565124</v>
       </c>
       <c r="C347" t="n">
         <v>346</v>
@@ -4955,7 +4955,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0.6772675833721129</v>
+        <v>0.6772674480007793</v>
       </c>
       <c r="C348" t="n">
         <v>347</v>
@@ -4968,7 +4968,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0.6763590397382505</v>
+        <v>0.676359263574306</v>
       </c>
       <c r="C349" t="n">
         <v>348</v>
@@ -4981,7 +4981,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>0.6762993774083874</v>
+        <v>0.6762992833545376</v>
       </c>
       <c r="C350" t="n">
         <v>349</v>
@@ -4994,7 +4994,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0.676299331249077</v>
+        <v>0.6762992371952202</v>
       </c>
       <c r="C351" t="n">
         <v>350</v>
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0.6761520047547871</v>
+        <v>0.6761518987040649</v>
       </c>
       <c r="C352" t="n">
         <v>351</v>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0.6753188115136882</v>
+        <v>0.6753187723938323</v>
       </c>
       <c r="C353" t="n">
         <v>352</v>
@@ -5033,7 +5033,7 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0.6751421048145192</v>
+        <v>0.6751420048199073</v>
       </c>
       <c r="C354" t="n">
         <v>353</v>
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0.6751187116604743</v>
+        <v>0.6751187151973054</v>
       </c>
       <c r="C355" t="n">
         <v>354</v>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0.6750949453895666</v>
+        <v>0.675094814574273</v>
       </c>
       <c r="C356" t="n">
         <v>355</v>
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0.6748181811923213</v>
+        <v>0.6748180906041313</v>
       </c>
       <c r="C357" t="n">
         <v>356</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0.6737614512730979</v>
+        <v>0.673761416750413</v>
       </c>
       <c r="C358" t="n">
         <v>357</v>
@@ -5098,7 +5098,7 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0.6730385850594054</v>
+        <v>0.6730384990584022</v>
       </c>
       <c r="C359" t="n">
         <v>358</v>
@@ -5111,7 +5111,7 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0.6730171098460733</v>
+        <v>0.6730171121058318</v>
       </c>
       <c r="C360" t="n">
         <v>359</v>
@@ -5124,7 +5124,7 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0.6730001600396792</v>
+        <v>0.6730000515355378</v>
       </c>
       <c r="C361" t="n">
         <v>360</v>
@@ -5137,7 +5137,7 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0.6729944602674668</v>
+        <v>0.6729945557279581</v>
       </c>
       <c r="C362" t="n">
         <v>361</v>
@@ -5150,7 +5150,7 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0.6729732138061154</v>
+        <v>0.672973216636894</v>
       </c>
       <c r="C363" t="n">
         <v>362</v>
@@ -5163,7 +5163,7 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0.6725995212390312</v>
+        <v>0.6725995664781749</v>
       </c>
       <c r="C364" t="n">
         <v>363</v>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0.6722644816615746</v>
+        <v>0.6722643637787159</v>
       </c>
       <c r="C365" t="n">
         <v>364</v>
@@ -5189,7 +5189,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0.6716008441159513</v>
+        <v>0.6716008463608693</v>
       </c>
       <c r="C366" t="n">
         <v>365</v>
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0.6713277669964409</v>
+        <v>0.6713276801749863</v>
       </c>
       <c r="C367" t="n">
         <v>366</v>
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0.6713149592820569</v>
+        <v>0.6713149246423755</v>
       </c>
       <c r="C368" t="n">
         <v>367</v>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0.6712374829869706</v>
+        <v>0.6712377679720199</v>
       </c>
       <c r="C369" t="n">
         <v>368</v>
@@ -5241,7 +5241,7 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0.6706602026130913</v>
+        <v>0.6706604139181711</v>
       </c>
       <c r="C370" t="n">
         <v>369</v>
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0.6700613402414075</v>
+        <v>0.6700614022114979</v>
       </c>
       <c r="C371" t="n">
         <v>370</v>
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0.6695722644518908</v>
+        <v>0.6695722230894567</v>
       </c>
       <c r="C372" t="n">
         <v>371</v>
@@ -5280,7 +5280,7 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0.6690738622527218</v>
+        <v>0.66907386328658</v>
       </c>
       <c r="C373" t="n">
         <v>372</v>
@@ -5293,7 +5293,7 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0.6683198045639996</v>
+        <v>0.6683197135493851</v>
       </c>
       <c r="C374" t="n">
         <v>373</v>
@@ -5306,7 +5306,7 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0.6683065976178321</v>
+        <v>0.6683065608018156</v>
       </c>
       <c r="C375" t="n">
         <v>374</v>
@@ -5319,7 +5319,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0.6683065480470068</v>
+        <v>0.6683065112309793</v>
       </c>
       <c r="C376" t="n">
         <v>375</v>
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>0.6682983935922083</v>
+        <v>0.6682983941914629</v>
       </c>
       <c r="C377" t="n">
         <v>376</v>
@@ -5345,7 +5345,7 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>0.6682904217531385</v>
+        <v>0.668290466643113</v>
       </c>
       <c r="C378" t="n">
         <v>377</v>
@@ -5358,7 +5358,7 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0.6677813992582124</v>
+        <v>0.6677812984649616</v>
       </c>
       <c r="C379" t="n">
         <v>378</v>
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0.6677665297884157</v>
+        <v>0.6677664889182455</v>
       </c>
       <c r="C380" t="n">
         <v>379</v>
@@ -5384,7 +5384,7 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>0.6677449312660387</v>
+        <v>0.667744980583611</v>
       </c>
       <c r="C381" t="n">
         <v>380</v>
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0.6675954242982517</v>
+        <v>0.6675953274980778</v>
       </c>
       <c r="C382" t="n">
         <v>381</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0.6669054227700354</v>
+        <v>0.6669054228711218</v>
       </c>
       <c r="C383" t="n">
         <v>382</v>
@@ -5423,7 +5423,7 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0.6658194664847427</v>
+        <v>0.6658193731623954</v>
       </c>
       <c r="C384" t="n">
         <v>383</v>
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0.6657654150933061</v>
+        <v>0.6657653641122152</v>
       </c>
       <c r="C385" t="n">
         <v>384</v>
@@ -5449,7 +5449,7 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0.6656528497995525</v>
+        <v>0.665652904343633</v>
       </c>
       <c r="C386" t="n">
         <v>385</v>
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0.6645390150424071</v>
+        <v>0.6645389727525398</v>
       </c>
       <c r="C387" t="n">
         <v>386</v>
@@ -5475,7 +5475,7 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0.6642863218674044</v>
+        <v>0.6642862296445793</v>
       </c>
       <c r="C388" t="n">
         <v>387</v>
@@ -5488,7 +5488,7 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0.6642861767554568</v>
+        <v>0.6642860845326118</v>
       </c>
       <c r="C389" t="n">
         <v>388</v>
@@ -5501,7 +5501,7 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0.6642861416366035</v>
+        <v>0.6642860494137538</v>
       </c>
       <c r="C390" t="n">
         <v>389</v>
@@ -5514,7 +5514,7 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0.6642861392494175</v>
+        <v>0.6642860470265676</v>
       </c>
       <c r="C391" t="n">
         <v>390</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>0.664273203102257</v>
+        <v>0.66427316513872</v>
       </c>
       <c r="C392" t="n">
         <v>391</v>
@@ -5540,7 +5540,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>0.6628895549647127</v>
+        <v>0.6628895536421526</v>
       </c>
       <c r="C393" t="n">
         <v>392</v>
@@ -5553,7 +5553,7 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0.6628661382532908</v>
+        <v>0.6628662271511221</v>
       </c>
       <c r="C394" t="n">
         <v>393</v>
@@ -5566,7 +5566,7 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0.6625845893292323</v>
+        <v>0.6625844928536158</v>
       </c>
       <c r="C395" t="n">
         <v>394</v>
@@ -5579,7 +5579,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0.6625378719913801</v>
+        <v>0.6625379677311843</v>
       </c>
       <c r="C396" t="n">
         <v>395</v>
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>0.6616102213478529</v>
+        <v>0.6616101336828252</v>
       </c>
       <c r="C397" t="n">
         <v>396</v>
@@ -5605,7 +5605,7 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0.6613614618234144</v>
+        <v>0.6613613193214227</v>
       </c>
       <c r="C398" t="n">
         <v>397</v>
@@ -5618,7 +5618,7 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>0.6603207442363239</v>
+        <v>0.660320696271768</v>
       </c>
       <c r="C399" t="n">
         <v>398</v>
@@ -5631,7 +5631,7 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>0.6601651453219822</v>
+        <v>0.6601650568843679</v>
       </c>
       <c r="C400" t="n">
         <v>399</v>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0.659687075152258</v>
+        <v>0.659686981509186</v>
       </c>
       <c r="C401" t="n">
         <v>400</v>
@@ -5657,7 +5657,7 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>0.6584900846444868</v>
+        <v>0.6584899658516411</v>
       </c>
       <c r="C402" t="n">
         <v>401</v>
@@ -5670,7 +5670,7 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>0.6582732123138715</v>
+        <v>0.6582731083106552</v>
       </c>
       <c r="C403" t="n">
         <v>402</v>
@@ -5683,7 +5683,7 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0.6569589087986376</v>
+        <v>0.6569588010695405</v>
       </c>
       <c r="C404" t="n">
         <v>403</v>
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>0.6569582184085488</v>
+        <v>0.6569581106793472</v>
       </c>
       <c r="C405" t="n">
         <v>404</v>
@@ -5709,7 +5709,7 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>0.6564449138537869</v>
+        <v>0.6564448192166956</v>
       </c>
       <c r="C406" t="n">
         <v>405</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>0.6562413708899572</v>
+        <v>0.6562412728075682</v>
       </c>
       <c r="C407" t="n">
         <v>406</v>
@@ -5735,7 +5735,7 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>0.6562413327259307</v>
+        <v>0.6562412346435365</v>
       </c>
       <c r="C408" t="n">
         <v>407</v>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0.6562276158769547</v>
+        <v>0.6562275741884207</v>
       </c>
       <c r="C409" t="n">
         <v>408</v>
@@ -5761,7 +5761,7 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>0.6562083179744523</v>
+        <v>0.6562083582958683</v>
       </c>
       <c r="C410" t="n">
         <v>409</v>
@@ -5774,7 +5774,7 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>0.6562078712599084</v>
+        <v>0.6562079115810701</v>
       </c>
       <c r="C411" t="n">
         <v>410</v>
@@ -5787,7 +5787,7 @@
         </is>
       </c>
       <c r="B412" t="n">
-        <v>0.656163837978468</v>
+        <v>0.6561642371450893</v>
       </c>
       <c r="C412" t="n">
         <v>411</v>
@@ -5800,7 +5800,7 @@
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0.6558977293080911</v>
+        <v>0.6558976310661625</v>
       </c>
       <c r="C413" t="n">
         <v>412</v>
@@ -5813,7 +5813,7 @@
         </is>
       </c>
       <c r="B414" t="n">
-        <v>0.655414644481969</v>
+        <v>0.6554146404467573</v>
       </c>
       <c r="C414" t="n">
         <v>413</v>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>0.6541445591791759</v>
+        <v>0.6541446048940991</v>
       </c>
       <c r="C415" t="n">
         <v>414</v>
@@ -5839,7 +5839,7 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>0.6528174064041533</v>
+        <v>0.6528174015495194</v>
       </c>
       <c r="C416" t="n">
         <v>415</v>
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="B417" t="n">
-        <v>0.651463889977146</v>
+        <v>0.6514638824075202</v>
       </c>
       <c r="C417" t="n">
         <v>416</v>
@@ -5865,7 +5865,7 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>0.6504469601196854</v>
+        <v>0.650446921457176</v>
       </c>
       <c r="C418" t="n">
         <v>417</v>
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="B419" t="n">
-        <v>0.6487532794713514</v>
+        <v>0.6487532320253481</v>
       </c>
       <c r="C419" t="n">
         <v>418</v>
@@ -5891,7 +5891,7 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0.6486374331797959</v>
+        <v>0.6486373728514366</v>
       </c>
       <c r="C420" t="n">
         <v>419</v>
@@ -5904,7 +5904,7 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>0.6480957541568465</v>
+        <v>0.6480958027335016</v>
       </c>
       <c r="C421" t="n">
         <v>420</v>
@@ -5917,7 +5917,7 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0.6480363604736948</v>
+        <v>0.6480362418811313</v>
       </c>
       <c r="C422" t="n">
         <v>421</v>
@@ -5930,7 +5930,7 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0.647794699298904</v>
+        <v>0.6477945495952838</v>
       </c>
       <c r="C423" t="n">
         <v>422</v>
@@ -5943,7 +5943,7 @@
         </is>
       </c>
       <c r="B424" t="n">
-        <v>0.6476912298423649</v>
+        <v>0.6476911289578686</v>
       </c>
       <c r="C424" t="n">
         <v>423</v>
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>0.6476908304492202</v>
+        <v>0.6476907295646714</v>
       </c>
       <c r="C425" t="n">
         <v>424</v>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="B426" t="n">
-        <v>0.6476771243424597</v>
+        <v>0.647677080144856</v>
       </c>
       <c r="C426" t="n">
         <v>425</v>
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="B427" t="n">
-        <v>0.6476021469711627</v>
+        <v>0.6476024150100949</v>
       </c>
       <c r="C427" t="n">
         <v>426</v>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>0.6474672090151169</v>
+        <v>0.6474671046426255</v>
       </c>
       <c r="C428" t="n">
         <v>427</v>
@@ -6008,7 +6008,7 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0.6474671980423886</v>
+        <v>0.6474670936698957</v>
       </c>
       <c r="C429" t="n">
         <v>428</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0.6474549527357407</v>
+        <v>0.6474551740547462</v>
       </c>
       <c r="C430" t="n">
         <v>429</v>
@@ -6034,7 +6034,7 @@
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0.6474537329999775</v>
+        <v>0.6474536872401178</v>
       </c>
       <c r="C431" t="n">
         <v>430</v>
@@ -6047,7 +6047,7 @@
         </is>
       </c>
       <c r="B432" t="n">
-        <v>0.6474531208003603</v>
+        <v>0.6474530750403704</v>
       </c>
       <c r="C432" t="n">
         <v>431</v>
@@ -6060,7 +6060,7 @@
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0.6471399713982907</v>
+        <v>0.6471398668592784</v>
       </c>
       <c r="C433" t="n">
         <v>432</v>
@@ -6073,7 +6073,7 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0.6467140232681016</v>
+        <v>0.646714062047164</v>
       </c>
       <c r="C434" t="n">
         <v>433</v>
@@ -6086,7 +6086,7 @@
         </is>
       </c>
       <c r="B435" t="n">
-        <v>0.6467004297825348</v>
+        <v>0.6467003160840304</v>
       </c>
       <c r="C435" t="n">
         <v>434</v>
@@ -6099,7 +6099,7 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0.6463114158822175</v>
+        <v>0.6463113163304247</v>
       </c>
       <c r="C436" t="n">
         <v>435</v>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>0.6462980831202457</v>
+        <v>0.6462980393071713</v>
       </c>
       <c r="C437" t="n">
         <v>436</v>
@@ -6125,7 +6125,7 @@
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0.6462979727105318</v>
+        <v>0.6462979288974353</v>
       </c>
       <c r="C438" t="n">
         <v>437</v>
@@ -6138,7 +6138,7 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0.6435554445471857</v>
+        <v>0.6435554023315841</v>
       </c>
       <c r="C439" t="n">
         <v>438</v>
@@ -6151,7 +6151,7 @@
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0.6433534466773417</v>
+        <v>0.6433533081153358</v>
       </c>
       <c r="C440" t="n">
         <v>439</v>
@@ -6164,7 +6164,7 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0.6404773486064693</v>
+        <v>0.6404772331123475</v>
       </c>
       <c r="C441" t="n">
         <v>440</v>
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="B442" t="n">
-        <v>0.6388925753985425</v>
+        <v>0.6388924680315414</v>
       </c>
       <c r="C442" t="n">
         <v>441</v>
@@ -6190,7 +6190,7 @@
         </is>
       </c>
       <c r="B443" t="n">
-        <v>0.637774622311853</v>
+        <v>0.6377745111848939</v>
       </c>
       <c r="C443" t="n">
         <v>442</v>
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>0.6364964240945286</v>
+        <v>0.6364965502978813</v>
       </c>
       <c r="C444" t="n">
         <v>443</v>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="B445" t="n">
-        <v>0.6358531677322135</v>
+        <v>0.6358532560447601</v>
       </c>
       <c r="C445" t="n">
         <v>444</v>
@@ -6229,7 +6229,7 @@
         </is>
       </c>
       <c r="B446" t="n">
-        <v>0.6338809696540624</v>
+        <v>0.6338808245224918</v>
       </c>
       <c r="C446" t="n">
         <v>445</v>
@@ -6242,7 +6242,7 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>0.6328744426580341</v>
+        <v>0.6328744286044367</v>
       </c>
       <c r="C447" t="n">
         <v>446</v>
@@ -6255,7 +6255,7 @@
         </is>
       </c>
       <c r="B448" t="n">
-        <v>0.6314019059048244</v>
+        <v>0.6314020523613975</v>
       </c>
       <c r="C448" t="n">
         <v>447</v>
@@ -6268,7 +6268,7 @@
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0.6302624129094476</v>
+        <v>0.6302624401022309</v>
       </c>
       <c r="C449" t="n">
         <v>448</v>
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0.6291598667339383</v>
+        <v>0.6291599457348085</v>
       </c>
       <c r="C450" t="n">
         <v>449</v>
@@ -6294,7 +6294,7 @@
         </is>
       </c>
       <c r="B451" t="n">
-        <v>0.6286397346041805</v>
+        <v>0.6286397621449007</v>
       </c>
       <c r="C451" t="n">
         <v>450</v>
@@ -6307,7 +6307,7 @@
         </is>
       </c>
       <c r="B452" t="n">
-        <v>0.6271481157887348</v>
+        <v>0.6271480597884662</v>
       </c>
       <c r="C452" t="n">
         <v>451</v>
@@ -6320,7 +6320,7 @@
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0.6263586084875227</v>
+        <v>0.6263585443353052</v>
       </c>
       <c r="C453" t="n">
         <v>452</v>
@@ -6333,7 +6333,7 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>0.6219401361718335</v>
+        <v>0.621940070983531</v>
       </c>
       <c r="C454" t="n">
         <v>453</v>
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>0.6214195074763211</v>
+        <v>0.621419680692785</v>
       </c>
       <c r="C455" t="n">
         <v>454</v>
@@ -6359,7 +6359,7 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0.6203648016037134</v>
+        <v>0.6203648269024624</v>
       </c>
       <c r="C456" t="n">
         <v>455</v>
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="B457" t="n">
-        <v>0.619969187763572</v>
+        <v>0.6199690741907902</v>
       </c>
       <c r="C457" t="n">
         <v>456</v>
@@ -6385,7 +6385,7 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0.6197929284627735</v>
+        <v>0.6197931330190868</v>
       </c>
       <c r="C458" t="n">
         <v>457</v>
@@ -6398,7 +6398,7 @@
         </is>
       </c>
       <c r="B459" t="n">
-        <v>0.6195527503306621</v>
+        <v>0.619552691395921</v>
       </c>
       <c r="C459" t="n">
         <v>458</v>
@@ -6411,7 +6411,7 @@
         </is>
       </c>
       <c r="B460" t="n">
-        <v>0.6186987932452956</v>
+        <v>0.6186986714995901</v>
       </c>
       <c r="C460" t="n">
         <v>459</v>
@@ -6424,7 +6424,7 @@
         </is>
       </c>
       <c r="B461" t="n">
-        <v>0.6161807214750773</v>
+        <v>0.6161806497359549</v>
       </c>
       <c r="C461" t="n">
         <v>460</v>
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B462" t="n">
-        <v>0.6159282668079827</v>
+        <v>0.6159281408358914</v>
       </c>
       <c r="C462" t="n">
         <v>461</v>
@@ -6450,7 +6450,7 @@
         </is>
       </c>
       <c r="B463" t="n">
-        <v>0.6159120524058209</v>
+        <v>0.6159119921898929</v>
       </c>
       <c r="C463" t="n">
         <v>462</v>
@@ -6463,7 +6463,7 @@
         </is>
       </c>
       <c r="B464" t="n">
-        <v>0.6159022811921625</v>
+        <v>0.6159022611903691</v>
       </c>
       <c r="C464" t="n">
         <v>463</v>
@@ -6476,7 +6476,7 @@
         </is>
       </c>
       <c r="B465" t="n">
-        <v>0.6150896714462002</v>
+        <v>0.6150896424614201</v>
       </c>
       <c r="C465" t="n">
         <v>464</v>
@@ -6489,7 +6489,7 @@
         </is>
       </c>
       <c r="B466" t="n">
-        <v>0.6105442547669625</v>
+        <v>0.6105441192830632</v>
       </c>
       <c r="C466" t="n">
         <v>465</v>
@@ -6502,7 +6502,7 @@
         </is>
       </c>
       <c r="B467" t="n">
-        <v>0.6091341312472329</v>
+        <v>0.6091340624291974</v>
       </c>
       <c r="C467" t="n">
         <v>466</v>
@@ -6515,7 +6515,7 @@
         </is>
       </c>
       <c r="B468" t="n">
-        <v>0.6087773448623783</v>
+        <v>0.6087771834966527</v>
       </c>
       <c r="C468" t="n">
         <v>467</v>
@@ -6528,7 +6528,7 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>0.6074949697225833</v>
+        <v>0.6074949467208626</v>
       </c>
       <c r="C469" t="n">
         <v>468</v>
@@ -6541,7 +6541,7 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0.6074592200600843</v>
+        <v>0.6074593430622004</v>
       </c>
       <c r="C470" t="n">
         <v>469</v>
@@ -6554,7 +6554,7 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>0.6038715039344407</v>
+        <v>0.6038714381516388</v>
       </c>
       <c r="C471" t="n">
         <v>470</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0.6011292846991705</v>
+        <v>0.6011294260422345</v>
       </c>
       <c r="C472" t="n">
         <v>471</v>
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="B473" t="n">
-        <v>0.5981798769874154</v>
+        <v>0.5981797016165805</v>
       </c>
       <c r="C473" t="n">
         <v>472</v>
@@ -6593,7 +6593,7 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>0.5973186839580855</v>
+        <v>0.5973185171956744</v>
       </c>
       <c r="C474" t="n">
         <v>473</v>
@@ -6606,7 +6606,7 @@
         </is>
       </c>
       <c r="B475" t="n">
-        <v>0.5930912647689985</v>
+        <v>0.5930912303509767</v>
       </c>
       <c r="C475" t="n">
         <v>474</v>
@@ -6619,7 +6619,7 @@
         </is>
       </c>
       <c r="B476" t="n">
-        <v>0.593059257575852</v>
+        <v>0.5930594569687696</v>
       </c>
       <c r="C476" t="n">
         <v>475</v>
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="B477" t="n">
-        <v>0.5894853795991958</v>
+        <v>0.5894853472982491</v>
       </c>
       <c r="C477" t="n">
         <v>476</v>
@@ -6645,7 +6645,7 @@
         </is>
       </c>
       <c r="B478" t="n">
-        <v>0.5849186379550675</v>
+        <v>0.5849186494499533</v>
       </c>
       <c r="C478" t="n">
         <v>477</v>
@@ -6658,7 +6658,7 @@
         </is>
       </c>
       <c r="B479" t="n">
-        <v>0.5807613112870796</v>
+        <v>0.5807613217680221</v>
       </c>
       <c r="C479" t="n">
         <v>478</v>
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0.5788577608353684</v>
+        <v>0.578857633008511</v>
       </c>
       <c r="C480" t="n">
         <v>479</v>
@@ -6684,7 +6684,7 @@
         </is>
       </c>
       <c r="B481" t="n">
-        <v>0.578071793195464</v>
+        <v>0.5780718025801546</v>
       </c>
       <c r="C481" t="n">
         <v>480</v>
@@ -6697,7 +6697,7 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>0.5777652843228933</v>
+        <v>0.5777651247705481</v>
       </c>
       <c r="C482" t="n">
         <v>481</v>
@@ -6710,7 +6710,7 @@
         </is>
       </c>
       <c r="B483" t="n">
-        <v>0.5659418974292328</v>
+        <v>0.5659417632347712</v>
       </c>
       <c r="C483" t="n">
         <v>482</v>
@@ -6723,7 +6723,7 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>0.5616695805999897</v>
+        <v>0.5616696909756429</v>
       </c>
       <c r="C484" t="n">
         <v>483</v>
@@ -6736,7 +6736,7 @@
         </is>
       </c>
       <c r="B485" t="n">
-        <v>0.5599875084362438</v>
+        <v>0.5599873613786266</v>
       </c>
       <c r="C485" t="n">
         <v>484</v>
@@ -6749,7 +6749,7 @@
         </is>
       </c>
       <c r="B486" t="n">
-        <v>0.5592205764410226</v>
+        <v>0.5592205781741733</v>
       </c>
       <c r="C486" t="n">
         <v>485</v>
@@ -6762,7 +6762,7 @@
         </is>
       </c>
       <c r="B487" t="n">
-        <v>0.5588643795680829</v>
+        <v>0.5588643299193095</v>
       </c>
       <c r="C487" t="n">
         <v>486</v>
@@ -6775,7 +6775,7 @@
         </is>
       </c>
       <c r="B488" t="n">
-        <v>0.5576073402986774</v>
+        <v>0.5576071859687536</v>
       </c>
       <c r="C488" t="n">
         <v>487</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="B489" t="n">
-        <v>0.5489036370342703</v>
+        <v>0.5489035910951665</v>
       </c>
       <c r="C489" t="n">
         <v>488</v>
@@ -6801,7 +6801,7 @@
         </is>
       </c>
       <c r="B490" t="n">
-        <v>0.5422614355559653</v>
+        <v>0.542261431031984</v>
       </c>
       <c r="C490" t="n">
         <v>489</v>
@@ -6814,7 +6814,7 @@
         </is>
       </c>
       <c r="B491" t="n">
-        <v>0.5356675860034571</v>
+        <v>0.5356673907571411</v>
       </c>
       <c r="C491" t="n">
         <v>490</v>
@@ -6827,7 +6827,7 @@
         </is>
       </c>
       <c r="B492" t="n">
-        <v>0.5347566679944843</v>
+        <v>0.534756703667341</v>
       </c>
       <c r="C492" t="n">
         <v>491</v>
@@ -6840,7 +6840,7 @@
         </is>
       </c>
       <c r="B493" t="n">
-        <v>0.5297659004460197</v>
+        <v>0.5297657509987252</v>
       </c>
       <c r="C493" t="n">
         <v>492</v>
@@ -6853,7 +6853,7 @@
         </is>
       </c>
       <c r="B494" t="n">
-        <v>0.5291248959219503</v>
+        <v>0.5291246464300141</v>
       </c>
       <c r="C494" t="n">
         <v>493</v>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="B495" t="n">
-        <v>0.5160808263572026</v>
+        <v>0.516080700353156</v>
       </c>
       <c r="C495" t="n">
         <v>494</v>
@@ -6879,7 +6879,7 @@
         </is>
       </c>
       <c r="B496" t="n">
-        <v>0.5073851128981798</v>
+        <v>0.5073849615895278</v>
       </c>
       <c r="C496" t="n">
         <v>495</v>
@@ -6892,7 +6892,7 @@
         </is>
       </c>
       <c r="B497" t="n">
-        <v>0.5034058986781103</v>
+        <v>0.5034058155630308</v>
       </c>
       <c r="C497" t="n">
         <v>496</v>
@@ -6905,7 +6905,7 @@
         </is>
       </c>
       <c r="B498" t="n">
-        <v>0.500134563758587</v>
+        <v>0.5001344428379738</v>
       </c>
       <c r="C498" t="n">
         <v>497</v>
@@ -6918,7 +6918,7 @@
         </is>
       </c>
       <c r="B499" t="n">
-        <v>0.4630128020259906</v>
+        <v>0.4630125706063821</v>
       </c>
       <c r="C499" t="n">
         <v>498</v>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="B500" t="n">
-        <v>0.4309266407599262</v>
+        <v>0.4309265084270733</v>
       </c>
       <c r="C500" t="n">
         <v>499</v>
@@ -6944,7 +6944,7 @@
         </is>
       </c>
       <c r="B501" t="n">
-        <v>0.4023424786034935</v>
+        <v>0.4023420551931616</v>
       </c>
       <c r="C501" t="n">
         <v>500</v>

--- a/dataset/MCDATobinsQ.xlsx
+++ b/dataset/MCDATobinsQ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9518428520419558</v>
+        <v>0.9518428520419557</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9419365531698788</v>
+        <v>0.9419365531698787</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9229423736658992</v>
+        <v>0.9229423736658989</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8976493105621732</v>
+        <v>0.8976493105621731</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.892522478566817</v>
+        <v>0.8925224785668169</v>
       </c>
       <c r="C10" t="n">
         <v>9</v>
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8833662840372613</v>
+        <v>0.8833662840372614</v>
       </c>
       <c r="C18" t="n">
         <v>17</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.878216309973169</v>
+        <v>0.8782163099731689</v>
       </c>
       <c r="C20" t="n">
         <v>19</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8682622775068407</v>
+        <v>0.8682622775068406</v>
       </c>
       <c r="C26" t="n">
         <v>25</v>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.8629737109829215</v>
+        <v>0.8629737109829214</v>
       </c>
       <c r="C28" t="n">
         <v>27</v>
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.861145350484129</v>
+        <v>0.8611453504841291</v>
       </c>
       <c r="C30" t="n">
         <v>29</v>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.8603973523443943</v>
+        <v>0.8603973523443942</v>
       </c>
       <c r="C34" t="n">
         <v>33</v>
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.8517894771039584</v>
+        <v>0.8517894771039585</v>
       </c>
       <c r="C38" t="n">
         <v>37</v>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.850246525711659</v>
+        <v>0.8502465257116589</v>
       </c>
       <c r="C39" t="n">
         <v>38</v>
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.8468918381804631</v>
+        <v>0.8468918381804632</v>
       </c>
       <c r="C44" t="n">
         <v>43</v>
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.8462724100021642</v>
+        <v>0.8462724100021641</v>
       </c>
       <c r="C46" t="n">
         <v>45</v>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.8461501118688771</v>
+        <v>0.8461501118688772</v>
       </c>
       <c r="C47" t="n">
         <v>46</v>
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.8444601900201364</v>
+        <v>0.8444601900201363</v>
       </c>
       <c r="C50" t="n">
         <v>49</v>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.8368161443624909</v>
+        <v>0.8368161443624907</v>
       </c>
       <c r="C54" t="n">
         <v>53</v>
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.8365170129233043</v>
+        <v>0.8365170129233045</v>
       </c>
       <c r="C57" t="n">
         <v>56</v>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.8354172861812218</v>
+        <v>0.8354172861812217</v>
       </c>
       <c r="C58" t="n">
         <v>57</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.833306598756234</v>
+        <v>0.8333065987562339</v>
       </c>
       <c r="C60" t="n">
         <v>59</v>
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.8331405891971172</v>
+        <v>0.8331405891971171</v>
       </c>
       <c r="C61" t="n">
         <v>60</v>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.8276232744515243</v>
+        <v>0.8276232744515242</v>
       </c>
       <c r="C68" t="n">
         <v>67</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.823551958003471</v>
+        <v>0.8235519580034709</v>
       </c>
       <c r="C70" t="n">
         <v>69</v>
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.8228495620574949</v>
+        <v>0.8228495620574948</v>
       </c>
       <c r="C71" t="n">
         <v>70</v>
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.8187580286318125</v>
+        <v>0.8187580286318122</v>
       </c>
       <c r="C75" t="n">
         <v>74</v>
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.8186976600801718</v>
+        <v>0.8186976600801716</v>
       </c>
       <c r="C78" t="n">
         <v>77</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.8186933564624493</v>
+        <v>0.8186933564624495</v>
       </c>
       <c r="C79" t="n">
         <v>78</v>
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.8159414541559539</v>
+        <v>0.8159414541559538</v>
       </c>
       <c r="C82" t="n">
         <v>81</v>
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.8089182021200838</v>
+        <v>0.8089182021200837</v>
       </c>
       <c r="C87" t="n">
         <v>86</v>
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.808900350197021</v>
+        <v>0.8089003501970208</v>
       </c>
       <c r="C88" t="n">
         <v>87</v>
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.8062366099152557</v>
+        <v>0.8062366099152558</v>
       </c>
       <c r="C90" t="n">
         <v>89</v>
@@ -1614,7 +1614,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.805871700704438</v>
+        <v>0.8058717007044381</v>
       </c>
       <c r="C91" t="n">
         <v>90</v>
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.8044588981362201</v>
+        <v>0.80445889813622</v>
       </c>
       <c r="C93" t="n">
         <v>92</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.8044506630937474</v>
+        <v>0.8044506630937472</v>
       </c>
       <c r="C94" t="n">
         <v>93</v>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.8034325117801548</v>
+        <v>0.8034325117801547</v>
       </c>
       <c r="C95" t="n">
         <v>94</v>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.8029882961270886</v>
+        <v>0.8029882961270887</v>
       </c>
       <c r="C96" t="n">
         <v>95</v>
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.8029473349798071</v>
+        <v>0.802947334979807</v>
       </c>
       <c r="C97" t="n">
         <v>96</v>
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.8029323540866609</v>
+        <v>0.8029323540866607</v>
       </c>
       <c r="C98" t="n">
         <v>97</v>
@@ -1718,7 +1718,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.8027611468327873</v>
+        <v>0.8027611468327872</v>
       </c>
       <c r="C99" t="n">
         <v>98</v>
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.792195007164409</v>
+        <v>0.7921950071644089</v>
       </c>
       <c r="C104" t="n">
         <v>103</v>
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.7911547117682903</v>
+        <v>0.7911547117682902</v>
       </c>
       <c r="C105" t="n">
         <v>104</v>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.7896085346008834</v>
+        <v>0.7896085346008835</v>
       </c>
       <c r="C107" t="n">
         <v>106</v>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.7890040627834072</v>
+        <v>0.7890040627834073</v>
       </c>
       <c r="C109" t="n">
         <v>108</v>
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.7890031307771039</v>
+        <v>0.789003130777104</v>
       </c>
       <c r="C110" t="n">
         <v>109</v>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.7886601564108714</v>
+        <v>0.7886601564108715</v>
       </c>
       <c r="C115" t="n">
         <v>114</v>
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.7886428630195025</v>
+        <v>0.7886428630195026</v>
       </c>
       <c r="C116" t="n">
         <v>115</v>
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.7884834014244968</v>
+        <v>0.7884834014244969</v>
       </c>
       <c r="C117" t="n">
         <v>116</v>
@@ -2043,7 +2043,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.7805845130192288</v>
+        <v>0.780584513019229</v>
       </c>
       <c r="C124" t="n">
         <v>123</v>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.7772884954322382</v>
+        <v>0.7772884954322383</v>
       </c>
       <c r="C126" t="n">
         <v>125</v>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.7764399765380576</v>
+        <v>0.7764399765380575</v>
       </c>
       <c r="C127" t="n">
         <v>126</v>
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.7722581045304479</v>
+        <v>0.772258104530448</v>
       </c>
       <c r="C130" t="n">
         <v>129</v>
@@ -2147,7 +2147,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.7721105372941264</v>
+        <v>0.7721105372941263</v>
       </c>
       <c r="C132" t="n">
         <v>131</v>
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.7715894982544487</v>
+        <v>0.7715894982544486</v>
       </c>
       <c r="C134" t="n">
         <v>133</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.771297383719312</v>
+        <v>0.7712973837193119</v>
       </c>
       <c r="C139" t="n">
         <v>138</v>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.7700461920328444</v>
+        <v>0.7700461920328443</v>
       </c>
       <c r="C140" t="n">
         <v>139</v>
@@ -2264,7 +2264,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.7694578358994809</v>
+        <v>0.769457835899481</v>
       </c>
       <c r="C141" t="n">
         <v>140</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.7691335170419323</v>
+        <v>0.7691335170419324</v>
       </c>
       <c r="C142" t="n">
         <v>141</v>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.7671882870864813</v>
+        <v>0.7671882870864812</v>
       </c>
       <c r="C143" t="n">
         <v>142</v>
@@ -2316,7 +2316,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.7637302094617436</v>
+        <v>0.7637302094617437</v>
       </c>
       <c r="C145" t="n">
         <v>144</v>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.762317350523018</v>
+        <v>0.7623173505230179</v>
       </c>
       <c r="C148" t="n">
         <v>147</v>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.7621693976059982</v>
+        <v>0.7621693976059981</v>
       </c>
       <c r="C149" t="n">
         <v>148</v>
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.7621684658753631</v>
+        <v>0.762168465875363</v>
       </c>
       <c r="C150" t="n">
         <v>149</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.7620365263880434</v>
+        <v>0.7620365263880435</v>
       </c>
       <c r="C151" t="n">
         <v>150</v>
@@ -2433,7 +2433,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.7570684391740897</v>
+        <v>0.7570684391740896</v>
       </c>
       <c r="C154" t="n">
         <v>153</v>
@@ -2459,7 +2459,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.7561190949648632</v>
+        <v>0.7561190949648631</v>
       </c>
       <c r="C156" t="n">
         <v>155</v>
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.7558309062954526</v>
+        <v>0.7558309062954525</v>
       </c>
       <c r="C157" t="n">
         <v>156</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.7547273526218922</v>
+        <v>0.7547273526218921</v>
       </c>
       <c r="C161" t="n">
         <v>160</v>
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.7544818079862692</v>
+        <v>0.7544818079862691</v>
       </c>
       <c r="C163" t="n">
         <v>162</v>
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.7542815758179902</v>
+        <v>0.75428157581799</v>
       </c>
       <c r="C165" t="n">
         <v>164</v>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.7531030160921739</v>
+        <v>0.7531030160921738</v>
       </c>
       <c r="C166" t="n">
         <v>165</v>
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.752601695699035</v>
+        <v>0.7526016956990351</v>
       </c>
       <c r="C168" t="n">
         <v>167</v>
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.7511024512401788</v>
+        <v>0.7511024512401787</v>
       </c>
       <c r="C170" t="n">
         <v>169</v>
@@ -2654,7 +2654,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.7509150017664787</v>
+        <v>0.7509150017664789</v>
       </c>
       <c r="C171" t="n">
         <v>170</v>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.7506897189828321</v>
+        <v>0.7506897189828322</v>
       </c>
       <c r="C175" t="n">
         <v>174</v>
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.750426502479886</v>
+        <v>0.7504265024798858</v>
       </c>
       <c r="C177" t="n">
         <v>176</v>
@@ -2745,7 +2745,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.7490385107289457</v>
+        <v>0.7490385107289456</v>
       </c>
       <c r="C178" t="n">
         <v>177</v>
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.7489874219749483</v>
+        <v>0.7489874219749482</v>
       </c>
       <c r="C180" t="n">
         <v>179</v>
@@ -2784,7 +2784,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.7483093590199388</v>
+        <v>0.7483093590199389</v>
       </c>
       <c r="C181" t="n">
         <v>180</v>
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.7479336246618896</v>
+        <v>0.7479336246618897</v>
       </c>
       <c r="C183" t="n">
         <v>182</v>
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.7473849699140174</v>
+        <v>0.7473849699140173</v>
       </c>
       <c r="C187" t="n">
         <v>186</v>
@@ -2901,7 +2901,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.7407584568872669</v>
+        <v>0.740758456887267</v>
       </c>
       <c r="C190" t="n">
         <v>189</v>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.7406359738129553</v>
+        <v>0.7406359738129554</v>
       </c>
       <c r="C192" t="n">
         <v>191</v>
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.7399538132143257</v>
+        <v>0.7399538132143259</v>
       </c>
       <c r="C193" t="n">
         <v>192</v>
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.7389131619866627</v>
+        <v>0.7389131619866628</v>
       </c>
       <c r="C195" t="n">
         <v>194</v>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.7387333253198405</v>
+        <v>0.7387333253198404</v>
       </c>
       <c r="C197" t="n">
         <v>196</v>
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.7382360230180911</v>
+        <v>0.738236023018091</v>
       </c>
       <c r="C198" t="n">
         <v>197</v>
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.7380536453164188</v>
+        <v>0.7380536453164189</v>
       </c>
       <c r="C200" t="n">
         <v>199</v>
@@ -3044,7 +3044,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.7374032441326276</v>
+        <v>0.7374032441326277</v>
       </c>
       <c r="C201" t="n">
         <v>200</v>
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.7373873638366271</v>
+        <v>0.737387363836627</v>
       </c>
       <c r="C202" t="n">
         <v>201</v>
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.7355400783708169</v>
+        <v>0.7355400783708168</v>
       </c>
       <c r="C207" t="n">
         <v>206</v>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.7327291391002714</v>
+        <v>0.7327291391002715</v>
       </c>
       <c r="C212" t="n">
         <v>211</v>
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.7316816177340334</v>
+        <v>0.7316816177340335</v>
       </c>
       <c r="C215" t="n">
         <v>214</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.728781617511686</v>
+        <v>0.7287816175116861</v>
       </c>
       <c r="C218" t="n">
         <v>217</v>
@@ -3343,7 +3343,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.7255505248266275</v>
+        <v>0.7255505248266276</v>
       </c>
       <c r="C224" t="n">
         <v>223</v>
@@ -3395,7 +3395,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.7234558186992063</v>
+        <v>0.7234558186992064</v>
       </c>
       <c r="C228" t="n">
         <v>227</v>
@@ -3408,7 +3408,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.7234554406827755</v>
+        <v>0.7234554406827753</v>
       </c>
       <c r="C229" t="n">
         <v>228</v>
@@ -3460,7 +3460,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.721875672737877</v>
+        <v>0.7218756727378768</v>
       </c>
       <c r="C233" t="n">
         <v>232</v>
@@ -3473,7 +3473,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.7211949674545615</v>
+        <v>0.7211949674545616</v>
       </c>
       <c r="C234" t="n">
         <v>233</v>
@@ -3486,7 +3486,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.7208686187603516</v>
+        <v>0.7208686187603517</v>
       </c>
       <c r="C235" t="n">
         <v>234</v>
@@ -3499,7 +3499,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.7205442617599966</v>
+        <v>0.7205442617599965</v>
       </c>
       <c r="C236" t="n">
         <v>235</v>
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.7205438565252437</v>
+        <v>0.7205438565252436</v>
       </c>
       <c r="C237" t="n">
         <v>236</v>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.7204056665630969</v>
+        <v>0.7204056665630968</v>
       </c>
       <c r="C239" t="n">
         <v>238</v>
@@ -3577,7 +3577,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.7202285723428686</v>
+        <v>0.7202285723428685</v>
       </c>
       <c r="C242" t="n">
         <v>241</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.7181515657955361</v>
+        <v>0.7181515657955362</v>
       </c>
       <c r="C243" t="n">
         <v>242</v>
@@ -3603,7 +3603,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.7178574488156592</v>
+        <v>0.7178574488156594</v>
       </c>
       <c r="C244" t="n">
         <v>243</v>
@@ -3616,7 +3616,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.7178290427806</v>
+        <v>0.7178290427805998</v>
       </c>
       <c r="C245" t="n">
         <v>244</v>
@@ -3629,7 +3629,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.7152924704259436</v>
+        <v>0.7152924704259437</v>
       </c>
       <c r="C246" t="n">
         <v>245</v>
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.7152293568892548</v>
+        <v>0.7152293568892549</v>
       </c>
       <c r="C247" t="n">
         <v>246</v>
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.7111783153867451</v>
+        <v>0.7111783153867449</v>
       </c>
       <c r="C252" t="n">
         <v>251</v>
@@ -3720,7 +3720,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.7111781343672863</v>
+        <v>0.7111781343672862</v>
       </c>
       <c r="C253" t="n">
         <v>252</v>
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.711165109019794</v>
+        <v>0.7111651090197941</v>
       </c>
       <c r="C254" t="n">
         <v>253</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.7110025438130138</v>
+        <v>0.7110025438130139</v>
       </c>
       <c r="C257" t="n">
         <v>256</v>
@@ -3785,7 +3785,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.7107304395474475</v>
+        <v>0.7107304395474473</v>
       </c>
       <c r="C258" t="n">
         <v>257</v>
@@ -3798,7 +3798,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.7105391763769456</v>
+        <v>0.7105391763769457</v>
       </c>
       <c r="C259" t="n">
         <v>258</v>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.7093962119470328</v>
+        <v>0.709396211947033</v>
       </c>
       <c r="C260" t="n">
         <v>259</v>
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.7093800592338532</v>
+        <v>0.7093800592338533</v>
       </c>
       <c r="C262" t="n">
         <v>261</v>
@@ -3850,7 +3850,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.7093107400012167</v>
+        <v>0.7093107400012166</v>
       </c>
       <c r="C263" t="n">
         <v>262</v>
@@ -3889,7 +3889,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.7081492016036512</v>
+        <v>0.7081492016036514</v>
       </c>
       <c r="C266" t="n">
         <v>265</v>
@@ -3928,7 +3928,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.7062357608318282</v>
+        <v>0.7062357608318283</v>
       </c>
       <c r="C269" t="n">
         <v>268</v>
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.7044635245296128</v>
+        <v>0.7044635245296127</v>
       </c>
       <c r="C272" t="n">
         <v>271</v>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0.700617744075903</v>
+        <v>0.7006177440759029</v>
       </c>
       <c r="C277" t="n">
         <v>276</v>
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.6993665665201289</v>
+        <v>0.6993665665201287</v>
       </c>
       <c r="C280" t="n">
         <v>279</v>
@@ -4097,7 +4097,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0.6992978314094777</v>
+        <v>0.6992978314094778</v>
       </c>
       <c r="C282" t="n">
         <v>281</v>
@@ -4136,7 +4136,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0.697650972040611</v>
+        <v>0.6976509720406109</v>
       </c>
       <c r="C285" t="n">
         <v>284</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0.6968479572519757</v>
+        <v>0.6968479572519758</v>
       </c>
       <c r="C286" t="n">
         <v>285</v>
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.6959839672411424</v>
+        <v>0.6959839672411423</v>
       </c>
       <c r="C287" t="n">
         <v>286</v>
@@ -4214,7 +4214,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.6948234903602493</v>
+        <v>0.6948234903602492</v>
       </c>
       <c r="C291" t="n">
         <v>290</v>
@@ -4253,7 +4253,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.6946441009238993</v>
+        <v>0.6946441009238994</v>
       </c>
       <c r="C294" t="n">
         <v>293</v>
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0.693639449637022</v>
+        <v>0.6936394496370218</v>
       </c>
       <c r="C297" t="n">
         <v>296</v>
@@ -4318,7 +4318,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0.6910337172215221</v>
+        <v>0.691033717221522</v>
       </c>
       <c r="C299" t="n">
         <v>298</v>
@@ -4370,7 +4370,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0.6906291756812785</v>
+        <v>0.6906291756812784</v>
       </c>
       <c r="C303" t="n">
         <v>302</v>
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0.6900795554521872</v>
+        <v>0.6900795554521871</v>
       </c>
       <c r="C305" t="n">
         <v>304</v>
@@ -4409,7 +4409,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0.6897992471051132</v>
+        <v>0.6897992471051131</v>
       </c>
       <c r="C306" t="n">
         <v>305</v>
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0.6895365055570305</v>
+        <v>0.6895365055570306</v>
       </c>
       <c r="C309" t="n">
         <v>308</v>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.6892723724241964</v>
+        <v>0.6892723724241963</v>
       </c>
       <c r="C310" t="n">
         <v>309</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.6890177105686026</v>
+        <v>0.6890177105686027</v>
       </c>
       <c r="C312" t="n">
         <v>311</v>
@@ -4500,7 +4500,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0.6886249305643249</v>
+        <v>0.6886249305643248</v>
       </c>
       <c r="C313" t="n">
         <v>312</v>
@@ -4526,7 +4526,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.68855202268529</v>
+        <v>0.6885520226852901</v>
       </c>
       <c r="C315" t="n">
         <v>314</v>
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0.6877777160712703</v>
+        <v>0.6877777160712701</v>
       </c>
       <c r="C317" t="n">
         <v>316</v>
@@ -4565,7 +4565,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.6874642308002278</v>
+        <v>0.6874642308002279</v>
       </c>
       <c r="C318" t="n">
         <v>317</v>
@@ -4578,7 +4578,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0.6868073488614831</v>
+        <v>0.6868073488614832</v>
       </c>
       <c r="C319" t="n">
         <v>318</v>
@@ -4591,7 +4591,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0.6868068803639593</v>
+        <v>0.6868068803639592</v>
       </c>
       <c r="C320" t="n">
         <v>319</v>
@@ -4604,7 +4604,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0.6867836022566123</v>
+        <v>0.6867836022566122</v>
       </c>
       <c r="C321" t="n">
         <v>320</v>
@@ -4643,7 +4643,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.6867580341069491</v>
+        <v>0.686758034106949</v>
       </c>
       <c r="C324" t="n">
         <v>323</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.6866327631757908</v>
+        <v>0.6866327631757909</v>
       </c>
       <c r="C325" t="n">
         <v>324</v>
@@ -4669,7 +4669,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0.6861498878774883</v>
+        <v>0.6861498878774882</v>
       </c>
       <c r="C326" t="n">
         <v>325</v>
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0.6855018354816056</v>
+        <v>0.6855018354816055</v>
       </c>
       <c r="C327" t="n">
         <v>326</v>
@@ -4708,7 +4708,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.6853131229576171</v>
+        <v>0.685313122957617</v>
       </c>
       <c r="C329" t="n">
         <v>328</v>
@@ -4734,7 +4734,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.6852191884723066</v>
+        <v>0.6852191884723065</v>
       </c>
       <c r="C331" t="n">
         <v>330</v>
@@ -4747,7 +4747,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.6850476291411528</v>
+        <v>0.6850476291411529</v>
       </c>
       <c r="C332" t="n">
         <v>331</v>
@@ -4773,7 +4773,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.6846566051417918</v>
+        <v>0.6846566051417917</v>
       </c>
       <c r="C334" t="n">
         <v>333</v>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0.6821164502766587</v>
+        <v>0.6821164502766586</v>
       </c>
       <c r="C337" t="n">
         <v>336</v>
@@ -4838,7 +4838,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0.6796930014518887</v>
+        <v>0.6796930014518888</v>
       </c>
       <c r="C339" t="n">
         <v>338</v>
@@ -4851,7 +4851,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0.6796013876171103</v>
+        <v>0.6796013876171104</v>
       </c>
       <c r="C340" t="n">
         <v>339</v>
@@ -4903,7 +4903,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0.6781436847152251</v>
+        <v>0.678143684715225</v>
       </c>
       <c r="C344" t="n">
         <v>343</v>
@@ -4916,7 +4916,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0.6778483216738536</v>
+        <v>0.6778483216738534</v>
       </c>
       <c r="C345" t="n">
         <v>344</v>
@@ -4929,7 +4929,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0.67784827720504</v>
+        <v>0.6778482772050402</v>
       </c>
       <c r="C346" t="n">
         <v>345</v>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0.6778355643565124</v>
+        <v>0.6778355643565125</v>
       </c>
       <c r="C347" t="n">
         <v>346</v>
@@ -4968,7 +4968,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0.676359263574306</v>
+        <v>0.6763592635743059</v>
       </c>
       <c r="C349" t="n">
         <v>348</v>
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0.6761518987040649</v>
+        <v>0.6761518987040648</v>
       </c>
       <c r="C352" t="n">
         <v>351</v>
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0.6751187151973054</v>
+        <v>0.6751187151973055</v>
       </c>
       <c r="C355" t="n">
         <v>354</v>
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0.6748180906041313</v>
+        <v>0.6748180906041312</v>
       </c>
       <c r="C357" t="n">
         <v>356</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0.673761416750413</v>
+        <v>0.6737614167504129</v>
       </c>
       <c r="C358" t="n">
         <v>357</v>
@@ -5111,7 +5111,7 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0.6730171121058318</v>
+        <v>0.6730171121058317</v>
       </c>
       <c r="C360" t="n">
         <v>359</v>
@@ -5137,7 +5137,7 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0.6729945557279581</v>
+        <v>0.672994555727958</v>
       </c>
       <c r="C362" t="n">
         <v>361</v>
@@ -5150,7 +5150,7 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0.672973216636894</v>
+        <v>0.6729732166368939</v>
       </c>
       <c r="C363" t="n">
         <v>362</v>
@@ -5163,7 +5163,7 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0.6725995664781749</v>
+        <v>0.6725995664781748</v>
       </c>
       <c r="C364" t="n">
         <v>363</v>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0.6722643637787159</v>
+        <v>0.6722643637787157</v>
       </c>
       <c r="C365" t="n">
         <v>364</v>
@@ -5189,7 +5189,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0.6716008463608693</v>
+        <v>0.6716008463608694</v>
       </c>
       <c r="C366" t="n">
         <v>365</v>
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0.6713149246423755</v>
+        <v>0.6713149246423754</v>
       </c>
       <c r="C368" t="n">
         <v>367</v>
@@ -5241,7 +5241,7 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0.6706604139181711</v>
+        <v>0.6706604139181712</v>
       </c>
       <c r="C370" t="n">
         <v>369</v>
@@ -5280,7 +5280,7 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0.66907386328658</v>
+        <v>0.6690738632865799</v>
       </c>
       <c r="C373" t="n">
         <v>372</v>
@@ -5306,7 +5306,7 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0.6683065608018156</v>
+        <v>0.6683065608018155</v>
       </c>
       <c r="C375" t="n">
         <v>374</v>
@@ -5358,7 +5358,7 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0.6677812984649616</v>
+        <v>0.6677812984649615</v>
       </c>
       <c r="C379" t="n">
         <v>378</v>
@@ -5423,7 +5423,7 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0.6658193731623954</v>
+        <v>0.6658193731623953</v>
       </c>
       <c r="C384" t="n">
         <v>383</v>
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0.6657653641122152</v>
+        <v>0.6657653641122151</v>
       </c>
       <c r="C385" t="n">
         <v>384</v>
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0.6645389727525398</v>
+        <v>0.6645389727525399</v>
       </c>
       <c r="C387" t="n">
         <v>386</v>
@@ -5475,7 +5475,7 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0.6642862296445793</v>
+        <v>0.6642862296445794</v>
       </c>
       <c r="C388" t="n">
         <v>387</v>
@@ -5514,7 +5514,7 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0.6642860470265676</v>
+        <v>0.6642860470265675</v>
       </c>
       <c r="C391" t="n">
         <v>390</v>
@@ -5579,7 +5579,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0.6625379677311843</v>
+        <v>0.6625379677311842</v>
       </c>
       <c r="C396" t="n">
         <v>395</v>
@@ -5605,7 +5605,7 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0.6613613193214227</v>
+        <v>0.6613613193214226</v>
       </c>
       <c r="C398" t="n">
         <v>397</v>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0.659686981509186</v>
+        <v>0.6596869815091859</v>
       </c>
       <c r="C401" t="n">
         <v>400</v>
@@ -5683,7 +5683,7 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0.6569588010695405</v>
+        <v>0.6569588010695404</v>
       </c>
       <c r="C404" t="n">
         <v>403</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>0.6562412728075682</v>
+        <v>0.6562412728075681</v>
       </c>
       <c r="C407" t="n">
         <v>406</v>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0.6562275741884207</v>
+        <v>0.6562275741884208</v>
       </c>
       <c r="C409" t="n">
         <v>408</v>
@@ -5761,7 +5761,7 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>0.6562083582958683</v>
+        <v>0.6562083582958684</v>
       </c>
       <c r="C410" t="n">
         <v>409</v>
@@ -5774,7 +5774,7 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>0.6562079115810701</v>
+        <v>0.6562079115810702</v>
       </c>
       <c r="C411" t="n">
         <v>410</v>
@@ -5813,7 +5813,7 @@
         </is>
       </c>
       <c r="B414" t="n">
-        <v>0.6554146404467573</v>
+        <v>0.6554146404467575</v>
       </c>
       <c r="C414" t="n">
         <v>413</v>
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="B417" t="n">
-        <v>0.6514638824075202</v>
+        <v>0.6514638824075201</v>
       </c>
       <c r="C417" t="n">
         <v>416</v>
@@ -5891,7 +5891,7 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0.6486373728514366</v>
+        <v>0.6486373728514365</v>
       </c>
       <c r="C420" t="n">
         <v>419</v>
@@ -5917,7 +5917,7 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0.6480362418811313</v>
+        <v>0.6480362418811314</v>
       </c>
       <c r="C422" t="n">
         <v>421</v>
@@ -5930,7 +5930,7 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0.6477945495952838</v>
+        <v>0.6477945495952839</v>
       </c>
       <c r="C423" t="n">
         <v>422</v>
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="B427" t="n">
-        <v>0.6476024150100949</v>
+        <v>0.6476024150100947</v>
       </c>
       <c r="C427" t="n">
         <v>426</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0.6474551740547462</v>
+        <v>0.6474551740547463</v>
       </c>
       <c r="C430" t="n">
         <v>429</v>
@@ -6034,7 +6034,7 @@
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0.6474536872401178</v>
+        <v>0.6474536872401176</v>
       </c>
       <c r="C431" t="n">
         <v>430</v>
@@ -6047,7 +6047,7 @@
         </is>
       </c>
       <c r="B432" t="n">
-        <v>0.6474530750403704</v>
+        <v>0.6474530750403703</v>
       </c>
       <c r="C432" t="n">
         <v>431</v>
@@ -6073,7 +6073,7 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0.646714062047164</v>
+        <v>0.6467140620471641</v>
       </c>
       <c r="C434" t="n">
         <v>433</v>
@@ -6086,7 +6086,7 @@
         </is>
       </c>
       <c r="B435" t="n">
-        <v>0.6467003160840304</v>
+        <v>0.6467003160840303</v>
       </c>
       <c r="C435" t="n">
         <v>434</v>
@@ -6125,7 +6125,7 @@
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0.6462979288974353</v>
+        <v>0.6462979288974354</v>
       </c>
       <c r="C438" t="n">
         <v>437</v>
@@ -6164,7 +6164,7 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0.6404772331123475</v>
+        <v>0.6404772331123474</v>
       </c>
       <c r="C441" t="n">
         <v>440</v>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="B445" t="n">
-        <v>0.6358532560447601</v>
+        <v>0.63585325604476</v>
       </c>
       <c r="C445" t="n">
         <v>444</v>
@@ -6242,7 +6242,7 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>0.6328744286044367</v>
+        <v>0.6328744286044368</v>
       </c>
       <c r="C447" t="n">
         <v>446</v>
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0.6291599457348085</v>
+        <v>0.6291599457348084</v>
       </c>
       <c r="C450" t="n">
         <v>449</v>
@@ -6294,7 +6294,7 @@
         </is>
       </c>
       <c r="B451" t="n">
-        <v>0.6286397621449007</v>
+        <v>0.6286397621449008</v>
       </c>
       <c r="C451" t="n">
         <v>450</v>
@@ -6307,7 +6307,7 @@
         </is>
       </c>
       <c r="B452" t="n">
-        <v>0.6271480597884662</v>
+        <v>0.6271480597884661</v>
       </c>
       <c r="C452" t="n">
         <v>451</v>
@@ -6333,7 +6333,7 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>0.621940070983531</v>
+        <v>0.6219400709835309</v>
       </c>
       <c r="C454" t="n">
         <v>453</v>
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="B457" t="n">
-        <v>0.6199690741907902</v>
+        <v>0.6199690741907901</v>
       </c>
       <c r="C457" t="n">
         <v>456</v>
@@ -6385,7 +6385,7 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0.6197931330190868</v>
+        <v>0.6197931330190869</v>
       </c>
       <c r="C458" t="n">
         <v>457</v>
@@ -6398,7 +6398,7 @@
         </is>
       </c>
       <c r="B459" t="n">
-        <v>0.619552691395921</v>
+        <v>0.6195526913959208</v>
       </c>
       <c r="C459" t="n">
         <v>458</v>
@@ -6528,7 +6528,7 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>0.6074949467208626</v>
+        <v>0.6074949467208627</v>
       </c>
       <c r="C469" t="n">
         <v>468</v>
@@ -6554,7 +6554,7 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>0.6038714381516388</v>
+        <v>0.6038714381516389</v>
       </c>
       <c r="C471" t="n">
         <v>470</v>
@@ -6606,7 +6606,7 @@
         </is>
       </c>
       <c r="B475" t="n">
-        <v>0.5930912303509767</v>
+        <v>0.5930912303509768</v>
       </c>
       <c r="C475" t="n">
         <v>474</v>
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="B477" t="n">
-        <v>0.5894853472982491</v>
+        <v>0.589485347298249</v>
       </c>
       <c r="C477" t="n">
         <v>476</v>
@@ -6658,7 +6658,7 @@
         </is>
       </c>
       <c r="B479" t="n">
-        <v>0.5807613217680221</v>
+        <v>0.580761321768022</v>
       </c>
       <c r="C479" t="n">
         <v>478</v>
@@ -6697,7 +6697,7 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>0.5777651247705481</v>
+        <v>0.5777651247705482</v>
       </c>
       <c r="C482" t="n">
         <v>481</v>
@@ -6710,7 +6710,7 @@
         </is>
       </c>
       <c r="B483" t="n">
-        <v>0.5659417632347712</v>
+        <v>0.5659417632347711</v>
       </c>
       <c r="C483" t="n">
         <v>482</v>
@@ -6723,7 +6723,7 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>0.5616696909756429</v>
+        <v>0.5616696909756428</v>
       </c>
       <c r="C484" t="n">
         <v>483</v>
@@ -6749,7 +6749,7 @@
         </is>
       </c>
       <c r="B486" t="n">
-        <v>0.5592205781741733</v>
+        <v>0.5592205781741731</v>
       </c>
       <c r="C486" t="n">
         <v>485</v>
@@ -6801,7 +6801,7 @@
         </is>
       </c>
       <c r="B490" t="n">
-        <v>0.542261431031984</v>
+        <v>0.5422614310319839</v>
       </c>
       <c r="C490" t="n">
         <v>489</v>
@@ -6827,7 +6827,7 @@
         </is>
       </c>
       <c r="B492" t="n">
-        <v>0.534756703667341</v>
+        <v>0.5347567036673411</v>
       </c>
       <c r="C492" t="n">
         <v>491</v>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="B495" t="n">
-        <v>0.516080700353156</v>
+        <v>0.5160807003531561</v>
       </c>
       <c r="C495" t="n">
         <v>494</v>
@@ -6879,7 +6879,7 @@
         </is>
       </c>
       <c r="B496" t="n">
-        <v>0.5073849615895278</v>
+        <v>0.5073849615895277</v>
       </c>
       <c r="C496" t="n">
         <v>495</v>
@@ -6892,7 +6892,7 @@
         </is>
       </c>
       <c r="B497" t="n">
-        <v>0.5034058155630308</v>
+        <v>0.5034058155630307</v>
       </c>
       <c r="C497" t="n">
         <v>496</v>
